--- a/Ch_7_Sentence_Modes/output/confidence intervals and means_2022.xlsx
+++ b/Ch_7_Sentence_Modes/output/confidence intervals and means_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBF1D41-9B32-4EA8-B341-0C638473AA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B71593-6F44-42D8-B610-8D0125A83095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="model tab" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="49">
   <si>
     <t>Predictors</t>
   </si>
@@ -373,18 +373,6 @@
     <t xml:space="preserve">t </t>
   </si>
   <si>
-    <t>#e66101</t>
-  </si>
-  <si>
-    <t>#5e3c99</t>
-  </si>
-  <si>
-    <t>#fdb863</t>
-  </si>
-  <si>
-    <t>#b2abd2</t>
-  </si>
-  <si>
     <t>Excursion</t>
   </si>
   <si>
@@ -400,7 +388,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +489,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -1198,15 +1192,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1275,9 +1260,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1300,9 +1282,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,18 +1302,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1374,9 +1341,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1384,36 +1348,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1443,11 +1377,471 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="71">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1492,344 +1886,6 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1930,105 +1986,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color rgb="FF333333"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -2135,6 +2092,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2142,15 +2108,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2184,75 +2141,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2373,6 +2261,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2380,15 +2277,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2422,75 +2310,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2612,6 +2431,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2619,15 +2447,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2650,6 +2469,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2660,6 +2480,39 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2745,6 +2598,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2752,15 +2614,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2783,7 +2636,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2794,40 +2646,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2948,6 +2766,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2955,15 +2782,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2997,40 +2815,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3151,6 +2935,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3158,18 +2951,39 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -3199,1513 +3013,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Mean time parameters for nuclear accent</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model tab'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>L time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct20">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg2"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct20">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="5E3C99"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-2F64-40C5-88AD-4239932E2342}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct20">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="E66101"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-2F64-40C5-88AD-4239932E2342}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct20">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="FDB863"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-2F64-40C5-88AD-4239932E2342}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct20">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="B2ABD2"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-2F64-40C5-88AD-4239932E2342}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'model tab'!$C$2:$C$5</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>5.9859999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.1849999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6.46</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>9.718</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'model tab'!$C$2:$C$5</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>5.9859999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.1849999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>6.46</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>9.718</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'model tab'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DEC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WHQ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>YNQ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DCQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model tab'!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>97.004000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.638000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94.364999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.567999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2F64-40C5-88AD-4239932E2342}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model tab'!$D$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2"/>
-            </a:solidFill>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5E3C99"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-2F64-40C5-88AD-4239932E2342}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E66101"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-2F64-40C5-88AD-4239932E2342}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FDB863"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-2F64-40C5-88AD-4239932E2342}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B2ABD2"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-2F64-40C5-88AD-4239932E2342}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'model tab'!$C$8:$C$11</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>14.731</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>14.776</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>14.334</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>21.504999999999999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'model tab'!$C$8:$C$11</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>14.731</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>14.776</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>14.334</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>21.504999999999999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'model tab'!$G$2:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DEC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WHQ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>YNQ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DCQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model tab'!$D$8:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>312.44499999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>315.411</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>307.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>275.44200000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2F64-40C5-88AD-4239932E2342}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="1686998496"/>
-        <c:axId val="1629394096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1686998496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1629394096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1629394096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="0"/>
-                  <a:t>L and H times (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1686998496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1100"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Mean F0 parameters for nuclear accent</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model tab'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>L fo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct20">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg2"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct20">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="5E3C99"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-0464-4CF0-BAB6-D999B7CB783A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct20">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="E66101"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0464-4CF0-BAB6-D999B7CB783A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct20">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="FDB863"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-0464-4CF0-BAB6-D999B7CB783A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="pct20">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr val="B2ABD2"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-0464-4CF0-BAB6-D999B7CB783A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'model tab'!$I$2:$I$5</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.1100000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.165</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.234</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4550000000000001</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'model tab'!$I$2:$I$5</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.1100000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.165</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.234</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.4550000000000001</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:ln w="15875"/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'model tab'!$G$2:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DEC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WHQ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>YNQ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DCQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model tab'!$J$2:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>87.817999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89.566000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.822999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0464-4CF0-BAB6-D999B7CB783A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model tab'!$J$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>H fo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2"/>
-            </a:solidFill>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5E3C99"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-0464-4CF0-BAB6-D999B7CB783A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E66101">
-                  <a:alpha val="98000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-0464-4CF0-BAB6-D999B7CB783A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FDB863"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-0464-4CF0-BAB6-D999B7CB783A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B2ABD2"/>
-              </a:solidFill>
-              <a:ln w="15875">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-0464-4CF0-BAB6-D999B7CB783A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'model tab'!$I$8:$I$11</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.236</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.1060000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.105</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.415</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'model tab'!$I$8:$I$11</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>1.236</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.1060000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.105</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1.415</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'model tab'!$G$2:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DEC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WHQ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>YNQ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DCQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model tab'!$J$8:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>91.525000000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>93.355000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>96.27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0464-4CF0-BAB6-D999B7CB783A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="1686998496"/>
-        <c:axId val="1629394096"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'model tab'!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Excursion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'model tab'!$O$2:$O$5</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.52700000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.48299999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.58199999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.63300000000000001</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'model tab'!$O$2:$O$5</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.52700000000000002</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.48299999999999998</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.58199999999999996</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.63300000000000001</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="25400" cap="sq" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'model tab'!$M$2:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DEC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WHQ</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>YNQ</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DCQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'model tab'!$P$2:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.1790000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5439999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2640000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9429999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0464-4CF0-BAB6-D999B7CB783A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1021517391"/>
-        <c:axId val="1110131327"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1686998496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1629394096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1629394096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="0"/>
-                  <a:t>target F0 (ST re min Hz)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1686998496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1110131327"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="0"/>
-                  <a:t>exc. size (ST)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1021517391"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1021517391"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1110131327"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5218,7 +3525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6112,7 +4419,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6798,7 +5105,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7673,7 +5980,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8178,6 +6485,1513 @@
       <a:round/>
     </a:ln>
     <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Mean time parameters for nuclear accent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model tab'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg2"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct20">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="5E3C99"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-16BB-425C-9D79-DD54542EE1BA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct20">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="E66101"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-16BB-425C-9D79-DD54542EE1BA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct20">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="FDB863"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-16BB-425C-9D79-DD54542EE1BA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct20">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="B2ABD2"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-16BB-425C-9D79-DD54542EE1BA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'model tab'!$C$2:$C$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.9859999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1849999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.46</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.718</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'model tab'!$C$2:$C$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.9859999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1849999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.46</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.718</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'model tab'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WHQ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YNQ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DCQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model tab'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>97.004000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.638000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.364999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.567999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-16BB-425C-9D79-DD54542EE1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model tab'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5E3C99"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-16BB-425C-9D79-DD54542EE1BA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E66101"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-16BB-425C-9D79-DD54542EE1BA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FDB863"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-16BB-425C-9D79-DD54542EE1BA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B2ABD2"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-16BB-425C-9D79-DD54542EE1BA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'model tab'!$C$8:$C$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>14.731</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.776</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.334</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21.504999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'model tab'!$C$8:$C$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>14.731</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.776</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.334</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21.504999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'model tab'!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WHQ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YNQ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DCQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model tab'!$D$8:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>312.44499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315.411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>307.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275.44200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-16BB-425C-9D79-DD54542EE1BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1686998496"/>
+        <c:axId val="1629394096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1686998496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1629394096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1629394096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0"/>
+                  <a:t>L and H times (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686998496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Mean F0 parameters for nuclear accent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model tab'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L fo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg2"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct20">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="5E3C99"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct20">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="E66101"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct20">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="FDB863"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct20">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="B2ABD2"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'model tab'!$I$2:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.1100000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.165</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.234</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4550000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'model tab'!$I$2:$I$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.1100000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.165</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.234</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.4550000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="15875"/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'model tab'!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WHQ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YNQ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DCQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model tab'!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>87.817999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.566000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.822999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model tab'!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H fo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5E3C99"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E66101">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FDB863"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B2ABD2"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'model tab'!$I$8:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.236</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1060000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.105</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.415</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'model tab'!$I$8:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.236</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1060000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.105</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.415</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'model tab'!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WHQ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YNQ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DCQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model tab'!$J$8:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>91.525000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.355000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1686998496"/>
+        <c:axId val="1629394096"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'model tab'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Excursion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'model tab'!$O$2:$O$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.52700000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.48299999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.58199999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.63300000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'model tab'!$O$2:$O$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.52700000000000002</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.48299999999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.58199999999999996</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.63300000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="sq" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'model tab'!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DEC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WHQ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YNQ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DCQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model tab'!$P$2:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.1790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9429999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-93D5-4CCD-8B97-6F2D1FE6D348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1021517391"/>
+        <c:axId val="1110131327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1686998496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1629394096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1629394096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0"/>
+                  <a:t>target F0 (ST re min Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686998496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1110131327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0"/>
+                  <a:t>exc. size (ST)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1021517391"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1021517391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1110131327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -9291,82 +9105,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>545907</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>110837</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name="Chart 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E412A093-C988-4D0A-829C-35271E035532}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>172488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>89127</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>102452</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="30" name="Chart 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28BF59B-3E52-41D7-8192-30EE903C342D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -9397,7 +9135,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9435,7 +9173,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9473,7 +9211,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9511,7 +9249,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9549,6 +9287,82 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>545907</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBED127-9A43-4856-87F2-0C7B956F30AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56470</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104136</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC78F03-DB16-4867-8133-B797E7C78D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
@@ -9620,18 +9434,92 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_f0_exc_r2"/>
+      <sheetName val="LME_f0_exc_b1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>0.56045733646622098</v>
+          <cell r="C2">
+            <v>0.36499999999999999</v>
+          </cell>
+          <cell r="D2">
+            <v>0.32100000000000001</v>
+          </cell>
+          <cell r="E2">
+            <v>1.1359999999999999</v>
+          </cell>
+          <cell r="G2">
+            <v>0.99990000000000001</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3">
-            <v>0.18725760823075199</v>
+          <cell r="C3">
+            <v>8.5999999999999993E-2</v>
+          </cell>
+          <cell r="D3">
+            <v>0.33400000000000002</v>
+          </cell>
+          <cell r="E3">
+            <v>0.25600000000000001</v>
+          </cell>
+          <cell r="G3">
+            <v>0.99990000000000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1.764</v>
+          </cell>
+          <cell r="D4">
+            <v>0.42</v>
+          </cell>
+          <cell r="E4">
+            <v>4.2030000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>1.24E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>-0.28000000000000003</v>
+          </cell>
+          <cell r="D5">
+            <v>0.433</v>
+          </cell>
+          <cell r="E5">
+            <v>-0.64600000000000002</v>
+          </cell>
+          <cell r="G5">
+            <v>0.99990000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>1.399</v>
+          </cell>
+          <cell r="D6">
+            <v>0.41699999999999998</v>
+          </cell>
+          <cell r="E6">
+            <v>3.3570000000000002</v>
+          </cell>
+          <cell r="G6">
+            <v>4.0599999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1.6779999999999999</v>
+          </cell>
+          <cell r="D7">
+            <v>0.33500000000000002</v>
+          </cell>
+          <cell r="E7">
+            <v>5.0060000000000002</v>
+          </cell>
+          <cell r="G7">
+            <v>2.7000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -9644,92 +9532,18 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_f0_exc_b1"/>
+      <sheetName val="LME_f0_exc_r2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="C2">
-            <v>0.36499999999999999</v>
-          </cell>
-          <cell r="D2">
-            <v>0.32100000000000001</v>
-          </cell>
-          <cell r="E2">
-            <v>1.1359999999999999</v>
-          </cell>
-          <cell r="G2">
-            <v>0.99990000000000001</v>
+          <cell r="B2">
+            <v>0.56045733646622098</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="C3">
-            <v>8.5999999999999993E-2</v>
-          </cell>
-          <cell r="D3">
-            <v>0.33400000000000002</v>
-          </cell>
-          <cell r="E3">
-            <v>0.25600000000000001</v>
-          </cell>
-          <cell r="G3">
-            <v>0.99990000000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1.764</v>
-          </cell>
-          <cell r="D4">
-            <v>0.42</v>
-          </cell>
-          <cell r="E4">
-            <v>4.2030000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>1.24E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>-0.28000000000000003</v>
-          </cell>
-          <cell r="D5">
-            <v>0.433</v>
-          </cell>
-          <cell r="E5">
-            <v>-0.64600000000000002</v>
-          </cell>
-          <cell r="G5">
-            <v>0.99990000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>1.399</v>
-          </cell>
-          <cell r="D6">
-            <v>0.41699999999999998</v>
-          </cell>
-          <cell r="E6">
-            <v>3.3570000000000002</v>
-          </cell>
-          <cell r="G6">
-            <v>4.0599999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1.6779999999999999</v>
-          </cell>
-          <cell r="D7">
-            <v>0.33500000000000002</v>
-          </cell>
-          <cell r="E7">
-            <v>5.0060000000000002</v>
-          </cell>
-          <cell r="G7">
-            <v>2.7000000000000001E-3</v>
+          <cell r="B3">
+            <v>0.18725760823075199</v>
           </cell>
         </row>
       </sheetData>
@@ -9742,18 +9556,92 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_l_t_r2"/>
+      <sheetName val="LME_l_t_b1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>0.70920915396352202</v>
+          <cell r="C2">
+            <v>0.63400000000000001</v>
+          </cell>
+          <cell r="D2">
+            <v>3.262</v>
+          </cell>
+          <cell r="E2">
+            <v>0.19400000000000001</v>
+          </cell>
+          <cell r="G2">
+            <v>0.99990000000000001</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3">
-            <v>0.50228895795003903</v>
+          <cell r="C3">
+            <v>-2.64</v>
+          </cell>
+          <cell r="D3">
+            <v>5.0679999999999996</v>
+          </cell>
+          <cell r="E3">
+            <v>-0.52100000000000002</v>
+          </cell>
+          <cell r="G3">
+            <v>0.99990000000000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>-26.436</v>
+          </cell>
+          <cell r="D4">
+            <v>7.9219999999999997</v>
+          </cell>
+          <cell r="E4">
+            <v>-3.3370000000000002</v>
+          </cell>
+          <cell r="G4">
+            <v>3.7600000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>-3.274</v>
+          </cell>
+          <cell r="D5">
+            <v>4.1040000000000001</v>
+          </cell>
+          <cell r="E5">
+            <v>-0.79800000000000004</v>
+          </cell>
+          <cell r="G5">
+            <v>0.99990000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>-27.07</v>
+          </cell>
+          <cell r="D6">
+            <v>7.6630000000000003</v>
+          </cell>
+          <cell r="E6">
+            <v>-3.5329999999999999</v>
+          </cell>
+          <cell r="G6">
+            <v>2.7099999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>-23.795999999999999</v>
+          </cell>
+          <cell r="D7">
+            <v>9.0410000000000004</v>
+          </cell>
+          <cell r="E7">
+            <v>-2.6320000000000001</v>
+          </cell>
+          <cell r="G7">
+            <v>0.12520000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -9766,92 +9654,18 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_l_t_b1"/>
+      <sheetName val="LME_l_t_r2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="C2">
-            <v>0.63400000000000001</v>
-          </cell>
-          <cell r="D2">
-            <v>3.262</v>
-          </cell>
-          <cell r="E2">
-            <v>0.19400000000000001</v>
-          </cell>
-          <cell r="G2">
-            <v>0.99990000000000001</v>
+          <cell r="B2">
+            <v>0.70920915396352202</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="C3">
-            <v>-2.64</v>
-          </cell>
-          <cell r="D3">
-            <v>5.0679999999999996</v>
-          </cell>
-          <cell r="E3">
-            <v>-0.52100000000000002</v>
-          </cell>
-          <cell r="G3">
-            <v>0.99990000000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>-26.436</v>
-          </cell>
-          <cell r="D4">
-            <v>7.9219999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>-3.3370000000000002</v>
-          </cell>
-          <cell r="G4">
-            <v>3.7600000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>-3.274</v>
-          </cell>
-          <cell r="D5">
-            <v>4.1040000000000001</v>
-          </cell>
-          <cell r="E5">
-            <v>-0.79800000000000004</v>
-          </cell>
-          <cell r="G5">
-            <v>0.99990000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>-27.07</v>
-          </cell>
-          <cell r="D6">
-            <v>7.6630000000000003</v>
-          </cell>
-          <cell r="E6">
-            <v>-3.5329999999999999</v>
-          </cell>
-          <cell r="G6">
-            <v>2.7099999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>-23.795999999999999</v>
-          </cell>
-          <cell r="D7">
-            <v>9.0410000000000004</v>
-          </cell>
-          <cell r="E7">
-            <v>-2.6320000000000001</v>
-          </cell>
-          <cell r="G7">
-            <v>0.12520000000000001</v>
+          <cell r="B3">
+            <v>0.50228895795003903</v>
           </cell>
         </row>
       </sheetData>
@@ -9864,18 +9678,92 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_h_t_r2"/>
+      <sheetName val="LME_h_t_b1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>0.43477936449820098</v>
+          <cell r="C2">
+            <v>2.94</v>
+          </cell>
+          <cell r="D2">
+            <v>7.04</v>
+          </cell>
+          <cell r="E2">
+            <v>0.41799999999999998</v>
+          </cell>
+          <cell r="G2">
+            <v>0.99990000000000001</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3">
-            <v>0.170648229551289</v>
+          <cell r="C3">
+            <v>-5.2039999999999997</v>
+          </cell>
+          <cell r="D3">
+            <v>7.2039999999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>-0.72199999999999998</v>
+          </cell>
+          <cell r="G3">
+            <v>0.99990000000000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>-37.003</v>
+          </cell>
+          <cell r="D4">
+            <v>15.519</v>
+          </cell>
+          <cell r="E4">
+            <v>-2.3839999999999999</v>
+          </cell>
+          <cell r="G4">
+            <v>0.18729999999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>-8.1560000000000006</v>
+          </cell>
+          <cell r="D5">
+            <v>6.8659999999999997</v>
+          </cell>
+          <cell r="E5">
+            <v>-1.1879999999999999</v>
+          </cell>
+          <cell r="G5">
+            <v>0.99990000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>-39.918999999999997</v>
+          </cell>
+          <cell r="D6">
+            <v>17.343</v>
+          </cell>
+          <cell r="E6">
+            <v>-2.302</v>
+          </cell>
+          <cell r="G6">
+            <v>0.2107</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>-31.798999999999999</v>
+          </cell>
+          <cell r="D7">
+            <v>17.62</v>
+          </cell>
+          <cell r="E7">
+            <v>-1.8049999999999999</v>
+          </cell>
+          <cell r="G7">
+            <v>0.50439999999999996</v>
           </cell>
         </row>
       </sheetData>
@@ -9888,92 +9776,18 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_h_t_b1"/>
+      <sheetName val="LME_h_t_r2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="C2">
-            <v>2.94</v>
-          </cell>
-          <cell r="D2">
-            <v>7.04</v>
-          </cell>
-          <cell r="E2">
-            <v>0.41799999999999998</v>
-          </cell>
-          <cell r="G2">
-            <v>0.99990000000000001</v>
+          <cell r="B2">
+            <v>0.43477936449820098</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="C3">
-            <v>-5.2039999999999997</v>
-          </cell>
-          <cell r="D3">
-            <v>7.2039999999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>-0.72199999999999998</v>
-          </cell>
-          <cell r="G3">
-            <v>0.99990000000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>-37.003</v>
-          </cell>
-          <cell r="D4">
-            <v>15.519</v>
-          </cell>
-          <cell r="E4">
-            <v>-2.3839999999999999</v>
-          </cell>
-          <cell r="G4">
-            <v>0.18729999999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>-8.1560000000000006</v>
-          </cell>
-          <cell r="D5">
-            <v>6.8659999999999997</v>
-          </cell>
-          <cell r="E5">
-            <v>-1.1879999999999999</v>
-          </cell>
-          <cell r="G5">
-            <v>0.99990000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>-39.918999999999997</v>
-          </cell>
-          <cell r="D6">
-            <v>17.343</v>
-          </cell>
-          <cell r="E6">
-            <v>-2.302</v>
-          </cell>
-          <cell r="G6">
-            <v>0.2107</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>-31.798999999999999</v>
-          </cell>
-          <cell r="D7">
-            <v>17.62</v>
-          </cell>
-          <cell r="E7">
-            <v>-1.8049999999999999</v>
-          </cell>
-          <cell r="G7">
-            <v>0.50439999999999996</v>
+          <cell r="B3">
+            <v>0.170648229551289</v>
           </cell>
         </row>
       </sheetData>
@@ -10044,52 +9858,52 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_h_f0_b0"/>
+      <sheetName val="LME_f0_exc_b0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>91.525000000000006</v>
+            <v>5.1790000000000003</v>
           </cell>
           <cell r="C2">
-            <v>1.236</v>
+            <v>0.52700000000000002</v>
           </cell>
           <cell r="G2">
-            <v>0</v>
+            <v>8.1899999999999995E-6</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>91.96</v>
+            <v>5.5439999999999996</v>
           </cell>
           <cell r="C3">
-            <v>1.1060000000000001</v>
+            <v>0.48299999999999998</v>
           </cell>
           <cell r="G3">
-            <v>0</v>
+            <v>3.1300000000000001E-6</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>93.355000000000004</v>
+            <v>5.2640000000000002</v>
           </cell>
           <cell r="C4">
-            <v>1.105</v>
+            <v>0.58199999999999996</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>4.7750000000000002E-5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>96.27</v>
+            <v>6.9429999999999996</v>
           </cell>
           <cell r="C5">
-            <v>1.415</v>
+            <v>0.63300000000000001</v>
           </cell>
           <cell r="G5">
-            <v>0</v>
+            <v>4.7899999999999999E-6</v>
           </cell>
         </row>
       </sheetData>
@@ -10102,52 +9916,52 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_f0_exc_b0"/>
+      <sheetName val="LME_h_t_b0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>5.1790000000000003</v>
+            <v>312.44499999999999</v>
           </cell>
           <cell r="C2">
-            <v>0.52700000000000002</v>
+            <v>14.731</v>
           </cell>
           <cell r="G2">
-            <v>8.1899999999999995E-6</v>
+            <v>1E-8</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>5.5439999999999996</v>
+            <v>315.411</v>
           </cell>
           <cell r="C3">
-            <v>0.48299999999999998</v>
+            <v>14.776</v>
           </cell>
           <cell r="G3">
-            <v>3.1300000000000001E-6</v>
+            <v>1E-8</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.2640000000000002</v>
+            <v>307.24</v>
           </cell>
           <cell r="C4">
-            <v>0.58199999999999996</v>
+            <v>14.334</v>
           </cell>
           <cell r="G4">
-            <v>4.7750000000000002E-5</v>
+            <v>1E-8</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>6.9429999999999996</v>
+            <v>275.44200000000001</v>
           </cell>
           <cell r="C5">
-            <v>0.63300000000000001</v>
+            <v>21.504999999999999</v>
           </cell>
           <cell r="G5">
-            <v>4.7899999999999999E-6</v>
+            <v>8.9999999999999999E-8</v>
           </cell>
         </row>
       </sheetData>
@@ -10160,52 +9974,52 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_h_t_b0"/>
+      <sheetName val="LME_h_f0_b0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>312.44499999999999</v>
+            <v>91.525000000000006</v>
           </cell>
           <cell r="C2">
-            <v>14.731</v>
+            <v>1.236</v>
           </cell>
           <cell r="G2">
-            <v>1E-8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>315.411</v>
+            <v>91.96</v>
           </cell>
           <cell r="C3">
-            <v>14.776</v>
+            <v>1.1060000000000001</v>
           </cell>
           <cell r="G3">
-            <v>1E-8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>307.24</v>
+            <v>93.355000000000004</v>
           </cell>
           <cell r="C4">
-            <v>14.334</v>
+            <v>1.105</v>
           </cell>
           <cell r="G4">
-            <v>1E-8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>275.44200000000001</v>
+            <v>96.27</v>
           </cell>
           <cell r="C5">
-            <v>21.504999999999999</v>
+            <v>1.415</v>
           </cell>
           <cell r="G5">
-            <v>8.9999999999999999E-8</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -10419,20 +10233,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="G1:K5" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="95" tableBorderDxfId="96" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="G1:K5" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="G1:K5" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="65">
       <calculatedColumnFormula>[2]LME_l_f0_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="91">
+    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="64">
       <calculatedColumnFormula>[2]LME_l_f0_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE485273-FB60-4E75-AD26-3B936EE4B569}" name="L fo" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{BE485273-FB60-4E75-AD26-3B936EE4B569}" name="L fo" dataDxfId="11">
       <calculatedColumnFormula>H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p" dataDxfId="90">
+    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p" dataDxfId="10">
       <calculatedColumnFormula>[2]LME_l_f0_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10441,21 +10255,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="G7:K11" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="87" tableBorderDxfId="88" totalsRowBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="G7:K11" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
   <autoFilter ref="G7:K11" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="84">
-      <calculatedColumnFormula>[3]LME_h_f0_b0!B2</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="58">
+      <calculatedColumnFormula>[5]LME_h_f0_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="83">
-      <calculatedColumnFormula>[3]LME_h_f0_b0!C2</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="57">
+      <calculatedColumnFormula>[5]LME_h_f0_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D8A465A5-9335-4374-919B-FF3C0B6C5EFF}" name="H fo" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{D8A465A5-9335-4374-919B-FF3C0B6C5EFF}" name="H fo" dataDxfId="9">
       <calculatedColumnFormula>H8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p" dataDxfId="82">
-      <calculatedColumnFormula>[3]LME_h_f0_b0!G2</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p" dataDxfId="8">
+      <calculatedColumnFormula>[5]LME_h_f0_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10463,21 +10277,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="M1:Q5" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="79" tableBorderDxfId="80" totalsRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="M1:Q5" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="M1:Q5" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="76">
-      <calculatedColumnFormula>[4]LME_f0_exc_b0!B2</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="51">
+      <calculatedColumnFormula>[3]LME_f0_exc_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="36">
-      <calculatedColumnFormula>[4]LME_f0_exc_b0!C2</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="50">
+      <calculatedColumnFormula>[3]LME_f0_exc_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FE3B2199-7807-4089-8FFB-0F6FF0038C6F}" name="Excursion" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{FE3B2199-7807-4089-8FFB-0F6FF0038C6F}" name="Excursion" dataDxfId="7">
       <calculatedColumnFormula>N2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p" dataDxfId="35">
-      <calculatedColumnFormula>[4]LME_f0_exc_b0!G2</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p" dataDxfId="6">
+      <calculatedColumnFormula>[3]LME_f0_exc_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10485,20 +10299,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="73" tableBorderDxfId="74" totalsRowBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="A1:E5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="44">
       <calculatedColumnFormula>[1]LME_l_t_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="69">
+    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="43">
       <calculatedColumnFormula>[1]LME_l_t_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{179EC2E2-AF67-46FA-8AC8-F2ED448301A9}" name="L time" dataDxfId="68">
+    <tableColumn id="4" xr3:uid="{179EC2E2-AF67-46FA-8AC8-F2ED448301A9}" name="L time" dataDxfId="5">
       <calculatedColumnFormula>B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p" dataDxfId="67">
+    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p" dataDxfId="4">
       <calculatedColumnFormula>[1]LME_l_t_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10507,21 +10321,21 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A7:E11" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="64" tableBorderDxfId="65" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A7:E11" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <autoFilter ref="A7:E11" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="61">
-      <calculatedColumnFormula>[5]LME_h_t_b0!B2</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="37">
+      <calculatedColumnFormula>[4]LME_h_t_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="60">
-      <calculatedColumnFormula>[5]LME_h_t_b0!C2</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="36">
+      <calculatedColumnFormula>[4]LME_h_t_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{05CF79E8-B1D9-4DE1-BB9A-FD535A905687}" name="H time" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{05CF79E8-B1D9-4DE1-BB9A-FD535A905687}" name="H time" dataDxfId="3">
       <calculatedColumnFormula>B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p" dataDxfId="58">
-      <calculatedColumnFormula>[5]LME_h_t_b0!G2</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p" dataDxfId="2">
+      <calculatedColumnFormula>[4]LME_h_t_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10529,20 +10343,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="M7:Q11" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="M7:Q11" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="M7:Q11" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="30">
       <calculatedColumnFormula>[6]LME_slope_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="51">
+    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="29">
       <calculatedColumnFormula>[6]LME_slope_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D9BCA0B7-1765-447A-BFB6-717DA2444B71}" name="Slope" dataDxfId="50">
+    <tableColumn id="4" xr3:uid="{D9BCA0B7-1765-447A-BFB6-717DA2444B71}" name="Slope" dataDxfId="1">
       <calculatedColumnFormula>N8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p" dataDxfId="49">
+    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p" dataDxfId="0">
       <calculatedColumnFormula>[6]LME_slope_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10849,31 +10663,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA75D8A-458C-4EF4-8CA5-966D1B6FEE89}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="86" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.88671875" style="6" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" style="83" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="83" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" style="83" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" style="80" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" style="80" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" style="80" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -10886,59 +10700,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="99" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="108" t="s">
+      <c r="N1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="109" t="s">
+      <c r="O1" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="103" t="s">
+      <c r="P1" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="99" t="s">
         <v>2</v>
       </c>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="67">
         <f>[1]LME_l_t_b0!B2</f>
         <v>97.004000000000005</v>
       </c>
@@ -10950,15 +10764,15 @@
         <f>B2</f>
         <v>97.004000000000005</v>
       </c>
-      <c r="E2" s="98">
+      <c r="E2" s="154">
         <f>[1]LME_l_t_b0!G2</f>
         <v>1.4000000000000001E-7</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="70">
+      <c r="H2" s="67">
         <f>[2]LME_l_f0_b0!B2</f>
         <v>87.817999999999998</v>
       </c>
@@ -10966,46 +10780,42 @@
         <f>[2]LME_l_f0_b0!C2</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="J2" s="121">
+      <c r="J2" s="112">
         <f>H2</f>
         <v>87.817999999999998</v>
       </c>
-      <c r="K2" s="98">
+      <c r="K2" s="154">
         <f>[2]LME_l_f0_b0!G2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="97" t="s">
+      <c r="M2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="70">
-        <f>[4]LME_f0_exc_b0!B2</f>
+      <c r="N2" s="67">
+        <f>[3]LME_f0_exc_b0!B2</f>
         <v>5.1790000000000003</v>
       </c>
       <c r="O2" s="62">
-        <f>[4]LME_f0_exc_b0!C2</f>
+        <f>[3]LME_f0_exc_b0!C2</f>
         <v>0.52700000000000002</v>
       </c>
-      <c r="P2" s="121">
+      <c r="P2" s="112">
         <f>N2</f>
         <v>5.1790000000000003</v>
       </c>
-      <c r="Q2" s="98">
-        <f>[4]LME_f0_exc_b0!G2</f>
+      <c r="Q2" s="154">
+        <f>[3]LME_f0_exc_b0!G2</f>
         <v>8.1899999999999995E-6</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="67">
         <f>[1]LME_l_t_b0!B3</f>
         <v>97.638000000000005</v>
       </c>
@@ -11017,15 +10827,15 @@
         <f t="shared" ref="D3:D5" si="0">B3</f>
         <v>97.638000000000005</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="154">
         <f>[1]LME_l_t_b0!G3</f>
         <v>1.4999999999999999E-7</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="67">
         <f>[2]LME_l_f0_b0!B3</f>
         <v>87.902000000000001</v>
       </c>
@@ -11033,46 +10843,42 @@
         <f>[2]LME_l_f0_b0!C3</f>
         <v>1.165</v>
       </c>
-      <c r="J3" s="121">
+      <c r="J3" s="112">
         <f t="shared" ref="J3:J5" si="1">H3</f>
         <v>87.902000000000001</v>
       </c>
-      <c r="K3" s="98">
+      <c r="K3" s="154">
         <f>[2]LME_l_f0_b0!G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="M3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="70">
-        <f>[4]LME_f0_exc_b0!B3</f>
+      <c r="N3" s="67">
+        <f>[3]LME_f0_exc_b0!B3</f>
         <v>5.5439999999999996</v>
       </c>
       <c r="O3" s="62">
-        <f>[4]LME_f0_exc_b0!C3</f>
+        <f>[3]LME_f0_exc_b0!C3</f>
         <v>0.48299999999999998</v>
       </c>
-      <c r="P3" s="121">
+      <c r="P3" s="112">
         <f t="shared" ref="P3:P5" si="2">N3</f>
         <v>5.5439999999999996</v>
       </c>
-      <c r="Q3" s="98">
-        <f>[4]LME_f0_exc_b0!G3</f>
+      <c r="Q3" s="154">
+        <f>[3]LME_f0_exc_b0!G3</f>
         <v>3.1300000000000001E-6</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="67">
         <f>[1]LME_l_t_b0!B4</f>
         <v>94.364999999999995</v>
       </c>
@@ -11084,15 +10890,15 @@
         <f t="shared" si="0"/>
         <v>94.364999999999995</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="154">
         <f>[1]LME_l_t_b0!G4</f>
         <v>2.1E-7</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="67">
         <f>[2]LME_l_f0_b0!B4</f>
         <v>89.566000000000003</v>
       </c>
@@ -11100,172 +10906,164 @@
         <f>[2]LME_l_f0_b0!C4</f>
         <v>1.234</v>
       </c>
-      <c r="J4" s="121">
+      <c r="J4" s="112">
         <f t="shared" si="1"/>
         <v>89.566000000000003</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="154">
         <f>[2]LME_l_f0_b0!G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="97" t="s">
+      <c r="M4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="70">
-        <f>[4]LME_f0_exc_b0!B4</f>
+      <c r="N4" s="67">
+        <f>[3]LME_f0_exc_b0!B4</f>
         <v>5.2640000000000002</v>
       </c>
       <c r="O4" s="62">
-        <f>[4]LME_f0_exc_b0!C4</f>
+        <f>[3]LME_f0_exc_b0!C4</f>
         <v>0.58199999999999996</v>
       </c>
-      <c r="P4" s="121">
+      <c r="P4" s="112">
         <f t="shared" si="2"/>
         <v>5.2640000000000002</v>
       </c>
-      <c r="Q4" s="98">
-        <f>[4]LME_f0_exc_b0!G4</f>
+      <c r="Q4" s="154">
+        <f>[3]LME_f0_exc_b0!G4</f>
         <v>4.7750000000000002E-5</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="101">
         <f>[1]LME_l_t_b0!B5</f>
         <v>70.567999999999998</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="106">
         <f>[1]LME_l_t_b0!C5</f>
         <v>9.718</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="102">
         <f t="shared" si="0"/>
         <v>70.567999999999998</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="155">
         <f>[1]LME_l_t_b0!G5</f>
         <v>7.5439999999999996E-5</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="105">
+      <c r="H5" s="101">
         <f>[2]LME_l_f0_b0!B5</f>
         <v>90.822999999999993</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="102">
         <f>[2]LME_l_f0_b0!C5</f>
         <v>1.4550000000000001</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="113">
         <f t="shared" si="1"/>
         <v>90.822999999999993</v>
       </c>
-      <c r="K5" s="107">
+      <c r="K5" s="155">
         <f>[2]LME_l_f0_b0!G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="105">
-        <f>[4]LME_f0_exc_b0!B5</f>
+      <c r="N5" s="101">
+        <f>[3]LME_f0_exc_b0!B5</f>
         <v>6.9429999999999996</v>
       </c>
-      <c r="O5" s="106">
-        <f>[4]LME_f0_exc_b0!C5</f>
+      <c r="O5" s="102">
+        <f>[3]LME_f0_exc_b0!C5</f>
         <v>0.63300000000000001</v>
       </c>
-      <c r="P5" s="122">
+      <c r="P5" s="113">
         <f t="shared" si="2"/>
         <v>6.9429999999999996</v>
       </c>
-      <c r="Q5" s="107">
-        <f>[4]LME_f0_exc_b0!G5</f>
+      <c r="Q5" s="155">
+        <f>[3]LME_f0_exc_b0!G5</f>
         <v>4.7899999999999999E-6</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="89"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="88"/>
+      <c r="H6" s="85"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="123"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="5"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="89"/>
+      <c r="N6" s="86"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="99" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="99" t="s">
+      <c r="G7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="124" t="s">
+      <c r="J7" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="103" t="s">
+      <c r="K7" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="99" t="s">
+      <c r="M7" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="100" t="s">
+      <c r="N7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="101" t="s">
+      <c r="O7" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="102" t="s">
+      <c r="P7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="103" t="s">
+      <c r="Q7" s="99" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="3"/>
@@ -11276,49 +11074,49 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="70">
-        <f>[5]LME_h_t_b0!B2</f>
+      <c r="B8" s="67">
+        <f>[4]LME_h_t_b0!B2</f>
         <v>312.44499999999999</v>
       </c>
       <c r="C8" s="62">
-        <f>[5]LME_h_t_b0!C2</f>
+        <f>[4]LME_h_t_b0!C2</f>
         <v>14.731</v>
       </c>
       <c r="D8" s="62">
         <f>B8</f>
         <v>312.44499999999999</v>
       </c>
-      <c r="E8" s="98">
-        <f>[5]LME_h_t_b0!G2</f>
+      <c r="E8" s="154">
+        <f>[4]LME_h_t_b0!G2</f>
         <v>1E-8</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="70">
-        <f>[3]LME_h_f0_b0!B2</f>
+      <c r="H8" s="67">
+        <f>[5]LME_h_f0_b0!B2</f>
         <v>91.525000000000006</v>
       </c>
       <c r="I8" s="62">
-        <f>[3]LME_h_f0_b0!C2</f>
+        <f>[5]LME_h_f0_b0!C2</f>
         <v>1.236</v>
       </c>
-      <c r="J8" s="121">
+      <c r="J8" s="112">
         <f>H8</f>
         <v>91.525000000000006</v>
       </c>
-      <c r="K8" s="98">
-        <f>[3]LME_h_f0_b0!G2</f>
+      <c r="K8" s="154">
+        <f>[5]LME_h_f0_b0!G2</f>
         <v>0</v>
       </c>
-      <c r="M8" s="97" t="s">
+      <c r="M8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="70">
+      <c r="N8" s="67">
         <f>[6]LME_slope_b0!B2</f>
         <v>31.908000000000001</v>
       </c>
@@ -11330,7 +11128,7 @@
         <f>N8</f>
         <v>31.908000000000001</v>
       </c>
-      <c r="Q8" s="98">
+      <c r="Q8" s="154">
         <f>[6]LME_slope_b0!G2</f>
         <v>4.9400000000000001E-6</v>
       </c>
@@ -11342,49 +11140,49 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:26" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="70">
-        <f>[5]LME_h_t_b0!B3</f>
+      <c r="B9" s="67">
+        <f>[4]LME_h_t_b0!B3</f>
         <v>315.411</v>
       </c>
       <c r="C9" s="62">
-        <f>[5]LME_h_t_b0!C3</f>
+        <f>[4]LME_h_t_b0!C3</f>
         <v>14.776</v>
       </c>
       <c r="D9" s="62">
         <f t="shared" ref="D9:D11" si="3">B9</f>
         <v>315.411</v>
       </c>
-      <c r="E9" s="98">
-        <f>[5]LME_h_t_b0!G3</f>
+      <c r="E9" s="154">
+        <f>[4]LME_h_t_b0!G3</f>
         <v>1E-8</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="70">
-        <f>[3]LME_h_f0_b0!B3</f>
+      <c r="H9" s="67">
+        <f>[5]LME_h_f0_b0!B3</f>
         <v>91.96</v>
       </c>
       <c r="I9" s="62">
-        <f>[3]LME_h_f0_b0!C3</f>
+        <f>[5]LME_h_f0_b0!C3</f>
         <v>1.1060000000000001</v>
       </c>
-      <c r="J9" s="121">
+      <c r="J9" s="112">
         <f t="shared" ref="J9:J11" si="4">H9</f>
         <v>91.96</v>
       </c>
-      <c r="K9" s="98">
-        <f>[3]LME_h_f0_b0!G3</f>
+      <c r="K9" s="154">
+        <f>[5]LME_h_f0_b0!G3</f>
         <v>0</v>
       </c>
-      <c r="M9" s="97" t="s">
+      <c r="M9" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="70">
+      <c r="N9" s="67">
         <f>[6]LME_slope_b0!B3</f>
         <v>34.118000000000002</v>
       </c>
@@ -11396,55 +11194,55 @@
         <f t="shared" ref="P9:P11" si="5">N9</f>
         <v>34.118000000000002</v>
       </c>
-      <c r="Q9" s="98">
+      <c r="Q9" s="154">
         <f>[6]LME_slope_b0!G3</f>
         <v>8.85E-6</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="70">
-        <f>[5]LME_h_t_b0!B4</f>
+      <c r="B10" s="67">
+        <f>[4]LME_h_t_b0!B4</f>
         <v>307.24</v>
       </c>
       <c r="C10" s="62">
-        <f>[5]LME_h_t_b0!C4</f>
+        <f>[4]LME_h_t_b0!C4</f>
         <v>14.334</v>
       </c>
       <c r="D10" s="62">
         <f t="shared" si="3"/>
         <v>307.24</v>
       </c>
-      <c r="E10" s="98">
-        <f>[5]LME_h_t_b0!G4</f>
+      <c r="E10" s="154">
+        <f>[4]LME_h_t_b0!G4</f>
         <v>1E-8</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="70">
-        <f>[3]LME_h_f0_b0!B4</f>
+      <c r="H10" s="67">
+        <f>[5]LME_h_f0_b0!B4</f>
         <v>93.355000000000004</v>
       </c>
       <c r="I10" s="62">
-        <f>[3]LME_h_f0_b0!C4</f>
+        <f>[5]LME_h_f0_b0!C4</f>
         <v>1.105</v>
       </c>
-      <c r="J10" s="121">
+      <c r="J10" s="112">
         <f t="shared" si="4"/>
         <v>93.355000000000004</v>
       </c>
-      <c r="K10" s="98">
-        <f>[3]LME_h_f0_b0!G4</f>
+      <c r="K10" s="154">
+        <f>[5]LME_h_f0_b0!G4</f>
         <v>0</v>
       </c>
-      <c r="M10" s="97" t="s">
+      <c r="M10" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="70">
+      <c r="N10" s="67">
         <f>[6]LME_slope_b0!B4</f>
         <v>33.381999999999998</v>
       </c>
@@ -11456,67 +11254,67 @@
         <f t="shared" si="5"/>
         <v>33.381999999999998</v>
       </c>
-      <c r="Q10" s="98">
+      <c r="Q10" s="154">
         <f>[6]LME_slope_b0!G4</f>
         <v>6.1299999999999998E-6</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="105">
-        <f>[5]LME_h_t_b0!B5</f>
+      <c r="B11" s="101">
+        <f>[4]LME_h_t_b0!B5</f>
         <v>275.44200000000001</v>
       </c>
-      <c r="C11" s="106">
-        <f>[5]LME_h_t_b0!C5</f>
+      <c r="C11" s="102">
+        <f>[4]LME_h_t_b0!C5</f>
         <v>21.504999999999999</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D11" s="102">
         <f t="shared" si="3"/>
         <v>275.44200000000001</v>
       </c>
-      <c r="E11" s="107">
-        <f>[5]LME_h_t_b0!G5</f>
+      <c r="E11" s="155">
+        <f>[4]LME_h_t_b0!G5</f>
         <v>8.9999999999999999E-8</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="105">
-        <f>[3]LME_h_f0_b0!B5</f>
+      <c r="H11" s="101">
+        <f>[5]LME_h_f0_b0!B5</f>
         <v>96.27</v>
       </c>
-      <c r="I11" s="106">
-        <f>[3]LME_h_f0_b0!C5</f>
+      <c r="I11" s="102">
+        <f>[5]LME_h_f0_b0!C5</f>
         <v>1.415</v>
       </c>
-      <c r="J11" s="122">
+      <c r="J11" s="113">
         <f t="shared" si="4"/>
         <v>96.27</v>
       </c>
-      <c r="K11" s="107">
-        <f>[3]LME_h_f0_b0!G5</f>
+      <c r="K11" s="155">
+        <f>[5]LME_h_f0_b0!G5</f>
         <v>0</v>
       </c>
-      <c r="M11" s="104" t="s">
+      <c r="M11" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="105">
+      <c r="N11" s="101">
         <f>[6]LME_slope_b0!B5</f>
         <v>41.012999999999998</v>
       </c>
-      <c r="O11" s="106">
+      <c r="O11" s="102">
         <f>[6]LME_slope_b0!C5</f>
         <v>2.984</v>
       </c>
-      <c r="P11" s="106">
+      <c r="P11" s="102">
         <f t="shared" si="5"/>
         <v>41.012999999999998</v>
       </c>
-      <c r="Q11" s="107">
+      <c r="Q11" s="155">
         <f>[6]LME_slope_b0!G5</f>
         <v>5.2E-7</v>
       </c>
@@ -11542,8 +11340,8 @@
       <c r="F22" s="1"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="Y22"/>
@@ -11553,8 +11351,8 @@
       <c r="F23" s="1"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="Y23"/>
@@ -11568,8 +11366,8 @@
       <c r="F25" s="1"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="Y25"/>
@@ -11579,8 +11377,8 @@
       <c r="F26" s="1"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="Y26"/>
@@ -11590,8 +11388,8 @@
       <c r="F27" s="1"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="Y27"/>
@@ -11601,8 +11399,8 @@
       <c r="F28" s="1"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="Y28"/>
@@ -11612,8 +11410,8 @@
       <c r="F29" s="1"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="Y29"/>
@@ -11623,8 +11421,8 @@
       <c r="F31" s="1"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="Y31"/>
@@ -11634,8 +11432,8 @@
       <c r="F32" s="1"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="Y32"/>
@@ -11645,8 +11443,8 @@
       <c r="F33" s="1"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="Y33"/>
@@ -11656,8 +11454,8 @@
       <c r="F34" s="1"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="Y34"/>
@@ -11667,8 +11465,8 @@
       <c r="F35" s="1"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="Y35"/>
@@ -11676,17 +11474,17 @@
     </row>
     <row r="36" spans="4:27" x14ac:dyDescent="0.3">
       <c r="H36" s="3"/>
-      <c r="Q36" s="87"/>
+      <c r="Q36" s="84"/>
       <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="4:27" x14ac:dyDescent="0.3">
       <c r="H37" s="3"/>
-      <c r="Q37" s="87"/>
+      <c r="Q37" s="84"/>
       <c r="AA37" s="2"/>
     </row>
     <row r="38" spans="4:27" x14ac:dyDescent="0.3">
       <c r="H38" s="3"/>
-      <c r="Q38" s="87"/>
+      <c r="Q38" s="84"/>
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="4:27" x14ac:dyDescent="0.3">
@@ -11697,12 +11495,12 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
@@ -11719,12 +11517,12 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -11735,10 +11533,10 @@
     </row>
     <row r="41" spans="4:27" x14ac:dyDescent="0.3">
       <c r="H41" s="3"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="87"/>
-      <c r="T41" s="87"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="84"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -11749,10 +11547,10 @@
     </row>
     <row r="42" spans="4:27" x14ac:dyDescent="0.3">
       <c r="H42" s="3"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
+      <c r="Q42" s="84"/>
+      <c r="R42" s="84"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="84"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -11762,45 +11560,51 @@
       <c r="AA42" s="2"/>
     </row>
     <row r="45" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
     </row>
     <row r="46" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D46" s="85"/>
+      <c r="D46" s="82"/>
     </row>
     <row r="47" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D47" s="85"/>
+      <c r="D47" s="82"/>
     </row>
     <row r="48" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="D48" s="85"/>
+      <c r="D48" s="82"/>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D49" s="85"/>
+      <c r="D49" s="82"/>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D50" s="85"/>
+      <c r="D50" s="82"/>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D51" s="85"/>
+      <c r="D51" s="82"/>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D52" s="85"/>
+      <c r="D52" s="82"/>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="E2:E5 E8:E11 K2:K5 K8:K11 Q2:Q5 Q8:Q11">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11822,8 +11626,8 @@
   </sheetPr>
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -11832,116 +11636,116 @@
     <col min="2" max="8" width="6.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="11" customWidth="1"/>
     <col min="10" max="12" width="6.33203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="77" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="74" customWidth="1"/>
     <col min="14" max="16" width="6.33203125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" style="77" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="74" customWidth="1"/>
     <col min="18" max="20" width="6.33203125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" style="77" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="74" customWidth="1"/>
     <col min="22" max="24" width="6.33203125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" style="77" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" style="74" customWidth="1"/>
     <col min="26" max="28" width="6.33203125" style="7" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" style="77" customWidth="1"/>
+    <col min="29" max="29" width="6.33203125" style="74" customWidth="1"/>
     <col min="30" max="31" width="6.33203125" style="58" customWidth="1"/>
     <col min="32" max="16384" width="13.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="120" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:31" s="111" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119" t="s">
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="116" t="s">
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="118"/>
+      <c r="AE1" s="137"/>
     </row>
     <row r="2" spans="1:31" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="63" t="s">
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="63" t="s">
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="63" t="s">
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="63" t="s">
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="63" t="s">
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="63" t="s">
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="65"/>
+      <c r="AE2" s="140"/>
     </row>
     <row r="3" spans="1:31" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
@@ -11980,7 +11784,7 @@
       <c r="L3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="72" t="s">
+      <c r="M3" s="69" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="46" t="s">
@@ -11992,7 +11796,7 @@
       <c r="P3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="72" t="s">
+      <c r="Q3" s="69" t="s">
         <v>9</v>
       </c>
       <c r="R3" s="46" t="s">
@@ -12004,7 +11808,7 @@
       <c r="T3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="72" t="s">
+      <c r="U3" s="69" t="s">
         <v>9</v>
       </c>
       <c r="V3" s="46" t="s">
@@ -12016,7 +11820,7 @@
       <c r="X3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="72" t="s">
+      <c r="Y3" s="69" t="s">
         <v>9</v>
       </c>
       <c r="Z3" s="46" t="s">
@@ -12028,7 +11832,7 @@
       <c r="AB3" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="72" t="s">
+      <c r="AC3" s="69" t="s">
         <v>9</v>
       </c>
       <c r="AD3" s="60" t="s">
@@ -12086,7 +11890,7 @@
         <f>[7]LME_h_f0_b1!$E$3</f>
         <v>5.2350000000000003</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="70">
         <f>[7]LME_h_f0_b1!$G$3</f>
         <v>1.6999999999999999E-3</v>
       </c>
@@ -12102,7 +11906,7 @@
         <f>[7]LME_h_f0_b1!$E$4</f>
         <v>7.63</v>
       </c>
-      <c r="Q4" s="73">
+      <c r="Q4" s="70">
         <f>[7]LME_h_f0_b1!$G$4</f>
         <v>8.3640000000000006E-5</v>
       </c>
@@ -12118,7 +11922,7 @@
         <f>[7]LME_h_f0_b1!E5</f>
         <v>3.1760000000000002</v>
       </c>
-      <c r="U4" s="73">
+      <c r="U4" s="70">
         <f>[7]LME_h_f0_b1!$G$4</f>
         <v>8.3640000000000006E-5</v>
       </c>
@@ -12134,7 +11938,7 @@
         <f>[7]LME_h_f0_b1!$E$6</f>
         <v>5.2809999999999997</v>
       </c>
-      <c r="Y4" s="73">
+      <c r="Y4" s="70">
         <f>[7]LME_h_f0_b1!$G$6</f>
         <v>1.6999999999999999E-3</v>
       </c>
@@ -12150,7 +11954,7 @@
         <f>[7]LME_h_f0_b1!$E$7</f>
         <v>3.84</v>
       </c>
-      <c r="AC4" s="73">
+      <c r="AC4" s="70">
         <f>[7]LME_h_f0_b1!$G$7</f>
         <v>1.6E-2</v>
       </c>
@@ -12211,7 +12015,7 @@
         <f>[7]LME_h_f0_b1!$E$3</f>
         <v>5.2350000000000003</v>
       </c>
-      <c r="M5" s="74">
+      <c r="M5" s="71">
         <f>[7]LME_h_f0_b1!$G$3</f>
         <v>1.6999999999999999E-3</v>
       </c>
@@ -12227,7 +12031,7 @@
         <f>[7]LME_h_f0_b1!$E$4</f>
         <v>7.63</v>
       </c>
-      <c r="Q5" s="74">
+      <c r="Q5" s="71">
         <f>[7]LME_h_f0_b1!$G$4</f>
         <v>8.3640000000000006E-5</v>
       </c>
@@ -12243,7 +12047,7 @@
         <f>[7]LME_h_f0_b1!$E$5</f>
         <v>3.1760000000000002</v>
       </c>
-      <c r="U5" s="74">
+      <c r="U5" s="71">
         <f>[7]LME_h_f0_b1!$G$5</f>
         <v>4.99E-2</v>
       </c>
@@ -12259,7 +12063,7 @@
         <f>[7]LME_h_f0_b1!$E$6</f>
         <v>5.2809999999999997</v>
       </c>
-      <c r="Y5" s="74">
+      <c r="Y5" s="71">
         <f>[7]LME_h_f0_b1!$G$6</f>
         <v>1.6999999999999999E-3</v>
       </c>
@@ -12275,7 +12079,7 @@
         <f>[7]LME_h_f0_b1!$E$7</f>
         <v>3.84</v>
       </c>
-      <c r="AC5" s="74">
+      <c r="AC5" s="71">
         <f>[7]LME_h_f0_b1!$G$7</f>
         <v>1.6E-2</v>
       </c>
@@ -12309,107 +12113,107 @@
         <v>6.9429999999999996</v>
       </c>
       <c r="F6" s="29">
-        <f>[11]LME_f0_exc_b1!$C$2</f>
+        <f>[10]LME_f0_exc_b1!$C$2</f>
         <v>0.36499999999999999</v>
       </c>
       <c r="G6" s="17">
-        <f>[11]LME_f0_exc_b1!$D$2</f>
+        <f>[10]LME_f0_exc_b1!$D$2</f>
         <v>0.32100000000000001</v>
       </c>
       <c r="H6" s="17">
-        <f>[11]LME_f0_exc_b1!$E$2</f>
+        <f>[10]LME_f0_exc_b1!$E$2</f>
         <v>1.1359999999999999</v>
       </c>
       <c r="I6" s="20">
-        <f>[11]LME_f0_exc_b1!$G$2</f>
+        <f>[10]LME_f0_exc_b1!$G$2</f>
         <v>0.99990000000000001</v>
       </c>
       <c r="J6" s="29">
-        <f>[11]LME_f0_exc_b1!$C$3</f>
+        <f>[10]LME_f0_exc_b1!$C$3</f>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="K6" s="17">
-        <f>[11]LME_f0_exc_b1!$D$3</f>
+        <f>[10]LME_f0_exc_b1!$D$3</f>
         <v>0.33400000000000002</v>
       </c>
       <c r="L6" s="17">
-        <f>[11]LME_f0_exc_b1!$E$3</f>
+        <f>[10]LME_f0_exc_b1!$E$3</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="M6" s="74">
-        <f>[11]LME_f0_exc_b1!$G$3</f>
+      <c r="M6" s="71">
+        <f>[10]LME_f0_exc_b1!$G$3</f>
         <v>0.99990000000000001</v>
       </c>
       <c r="N6" s="29">
-        <f>[11]LME_f0_exc_b1!$C$4</f>
+        <f>[10]LME_f0_exc_b1!$C$4</f>
         <v>1.764</v>
       </c>
       <c r="O6" s="17">
-        <f>[11]LME_f0_exc_b1!$D$4</f>
+        <f>[10]LME_f0_exc_b1!$D$4</f>
         <v>0.42</v>
       </c>
       <c r="P6" s="17">
-        <f>[11]LME_f0_exc_b1!$E$4</f>
+        <f>[10]LME_f0_exc_b1!$E$4</f>
         <v>4.2030000000000003</v>
       </c>
-      <c r="Q6" s="74">
-        <f>[11]LME_f0_exc_b1!$G$4</f>
+      <c r="Q6" s="71">
+        <f>[10]LME_f0_exc_b1!$G$4</f>
         <v>1.24E-2</v>
       </c>
       <c r="R6" s="29">
-        <f>[11]LME_f0_exc_b1!$C$5</f>
+        <f>[10]LME_f0_exc_b1!$C$5</f>
         <v>-0.28000000000000003</v>
       </c>
       <c r="S6" s="17">
-        <f>[11]LME_f0_exc_b1!$D$5</f>
+        <f>[10]LME_f0_exc_b1!$D$5</f>
         <v>0.433</v>
       </c>
       <c r="T6" s="17">
-        <f>[11]LME_f0_exc_b1!$E$5</f>
+        <f>[10]LME_f0_exc_b1!$E$5</f>
         <v>-0.64600000000000002</v>
       </c>
-      <c r="U6" s="74">
-        <f>[11]LME_f0_exc_b1!$G$5</f>
+      <c r="U6" s="71">
+        <f>[10]LME_f0_exc_b1!$G$5</f>
         <v>0.99990000000000001</v>
       </c>
       <c r="V6" s="29">
-        <f>[11]LME_f0_exc_b1!$C$6</f>
+        <f>[10]LME_f0_exc_b1!$C$6</f>
         <v>1.399</v>
       </c>
       <c r="W6" s="17">
-        <f>[11]LME_f0_exc_b1!$D$6</f>
+        <f>[10]LME_f0_exc_b1!$D$6</f>
         <v>0.41699999999999998</v>
       </c>
       <c r="X6" s="17">
-        <f>[11]LME_f0_exc_b1!$E$6</f>
+        <f>[10]LME_f0_exc_b1!$E$6</f>
         <v>3.3570000000000002</v>
       </c>
-      <c r="Y6" s="74">
-        <f>[11]LME_f0_exc_b1!$G$6</f>
+      <c r="Y6" s="71">
+        <f>[10]LME_f0_exc_b1!$G$6</f>
         <v>4.0599999999999997E-2</v>
       </c>
       <c r="Z6" s="29">
-        <f>[11]LME_f0_exc_b1!$C$7</f>
+        <f>[10]LME_f0_exc_b1!$C$7</f>
         <v>1.6779999999999999</v>
       </c>
       <c r="AA6" s="17">
-        <f>[11]LME_f0_exc_b1!$D$7</f>
+        <f>[10]LME_f0_exc_b1!$D$7</f>
         <v>0.33500000000000002</v>
       </c>
       <c r="AB6" s="17">
-        <f>[11]LME_f0_exc_b1!$E$7</f>
+        <f>[10]LME_f0_exc_b1!$E$7</f>
         <v>5.0060000000000002</v>
       </c>
-      <c r="AC6" s="74">
-        <f>[11]LME_f0_exc_b1!$G$7</f>
+      <c r="AC6" s="71">
+        <f>[10]LME_f0_exc_b1!$G$7</f>
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="AD6" s="29">
-        <f>[10]LME_f0_exc_r2!$B$3</f>
+        <f>[11]LME_f0_exc_r2!$B$3</f>
         <v>0.18725760823075199</v>
       </c>
       <c r="AE6" s="30">
-        <f>[10]LME_f0_exc_r2!$B$2</f>
+        <f>[11]LME_f0_exc_r2!$B$2</f>
         <v>0.56045733646622098</v>
       </c>
     </row>
@@ -12450,7 +12254,7 @@
       <c r="L7" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="69" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="46" t="s">
@@ -12462,7 +12266,7 @@
       <c r="P7" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="72" t="s">
+      <c r="Q7" s="69" t="s">
         <v>9</v>
       </c>
       <c r="R7" s="46" t="s">
@@ -12474,7 +12278,7 @@
       <c r="T7" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="72" t="s">
+      <c r="U7" s="69" t="s">
         <v>9</v>
       </c>
       <c r="V7" s="46" t="s">
@@ -12486,7 +12290,7 @@
       <c r="X7" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="72" t="s">
+      <c r="Y7" s="69" t="s">
         <v>9</v>
       </c>
       <c r="Z7" s="46" t="s">
@@ -12498,7 +12302,7 @@
       <c r="AB7" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="72" t="s">
+      <c r="AC7" s="69" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="60" t="s">
@@ -12529,107 +12333,107 @@
         <v>70.567999999999998</v>
       </c>
       <c r="F8" s="39">
-        <f>[13]LME_l_t_b1!$C$2</f>
+        <f>[12]LME_l_t_b1!$C$2</f>
         <v>0.63400000000000001</v>
       </c>
       <c r="G8" s="57">
-        <f>[13]LME_l_t_b1!$D$2</f>
+        <f>[12]LME_l_t_b1!$D$2</f>
         <v>3.262</v>
       </c>
       <c r="H8" s="57">
-        <f>[13]LME_l_t_b1!$E$2</f>
+        <f>[12]LME_l_t_b1!$E$2</f>
         <v>0.19400000000000001</v>
       </c>
       <c r="I8" s="45">
-        <f>[13]LME_l_t_b1!$G$2</f>
+        <f>[12]LME_l_t_b1!$G$2</f>
         <v>0.99990000000000001</v>
       </c>
       <c r="J8" s="39">
-        <f>[13]LME_l_t_b1!$C$3</f>
+        <f>[12]LME_l_t_b1!$C$3</f>
         <v>-2.64</v>
       </c>
       <c r="K8" s="43">
-        <f>[13]LME_l_t_b1!$D$3</f>
+        <f>[12]LME_l_t_b1!$D$3</f>
         <v>5.0679999999999996</v>
       </c>
       <c r="L8" s="43">
-        <f>[13]LME_l_t_b1!$E$3</f>
+        <f>[12]LME_l_t_b1!$E$3</f>
         <v>-0.52100000000000002</v>
       </c>
-      <c r="M8" s="75">
-        <f>[13]LME_l_t_b1!$G$3</f>
+      <c r="M8" s="72">
+        <f>[12]LME_l_t_b1!$G$3</f>
         <v>0.99990000000000001</v>
       </c>
       <c r="N8" s="39">
-        <f>[13]LME_l_t_b1!$C$4</f>
+        <f>[12]LME_l_t_b1!$C$4</f>
         <v>-26.436</v>
       </c>
       <c r="O8" s="43">
-        <f>[13]LME_l_t_b1!$D$4</f>
+        <f>[12]LME_l_t_b1!$D$4</f>
         <v>7.9219999999999997</v>
       </c>
       <c r="P8" s="43">
-        <f>[13]LME_l_t_b1!$E$4</f>
+        <f>[12]LME_l_t_b1!$E$4</f>
         <v>-3.3370000000000002</v>
       </c>
-      <c r="Q8" s="75">
-        <f>[13]LME_l_t_b1!$G$4</f>
+      <c r="Q8" s="72">
+        <f>[12]LME_l_t_b1!$G$4</f>
         <v>3.7600000000000001E-2</v>
       </c>
       <c r="R8" s="39">
-        <f>[13]LME_l_t_b1!$C$5</f>
+        <f>[12]LME_l_t_b1!$C$5</f>
         <v>-3.274</v>
       </c>
       <c r="S8" s="43">
-        <f>[13]LME_l_t_b1!$D$5</f>
+        <f>[12]LME_l_t_b1!$D$5</f>
         <v>4.1040000000000001</v>
       </c>
       <c r="T8" s="43">
-        <f>[13]LME_l_t_b1!$E$5</f>
+        <f>[12]LME_l_t_b1!$E$5</f>
         <v>-0.79800000000000004</v>
       </c>
-      <c r="U8" s="75">
-        <f>[13]LME_l_t_b1!$G$5</f>
+      <c r="U8" s="72">
+        <f>[12]LME_l_t_b1!$G$5</f>
         <v>0.99990000000000001</v>
       </c>
       <c r="V8" s="39">
-        <f>[13]LME_l_t_b1!$C$6</f>
+        <f>[12]LME_l_t_b1!$C$6</f>
         <v>-27.07</v>
       </c>
       <c r="W8" s="43">
-        <f>[13]LME_l_t_b1!$D$6</f>
+        <f>[12]LME_l_t_b1!$D$6</f>
         <v>7.6630000000000003</v>
       </c>
       <c r="X8" s="43">
-        <f>[13]LME_l_t_b1!$E$6</f>
+        <f>[12]LME_l_t_b1!$E$6</f>
         <v>-3.5329999999999999</v>
       </c>
-      <c r="Y8" s="75">
-        <f>[13]LME_l_t_b1!$G$6</f>
+      <c r="Y8" s="72">
+        <f>[12]LME_l_t_b1!$G$6</f>
         <v>2.7099999999999999E-2</v>
       </c>
       <c r="Z8" s="39">
-        <f>[13]LME_l_t_b1!$C$7</f>
+        <f>[12]LME_l_t_b1!$C$7</f>
         <v>-23.795999999999999</v>
       </c>
       <c r="AA8" s="43">
-        <f>[13]LME_l_t_b1!$D$7</f>
+        <f>[12]LME_l_t_b1!$D$7</f>
         <v>9.0410000000000004</v>
       </c>
       <c r="AB8" s="43">
-        <f>[13]LME_l_t_b1!$E$7</f>
+        <f>[12]LME_l_t_b1!$E$7</f>
         <v>-2.6320000000000001</v>
       </c>
-      <c r="AC8" s="75">
-        <f>[13]LME_l_t_b1!$G$7</f>
+      <c r="AC8" s="72">
+        <f>[12]LME_l_t_b1!$G$7</f>
         <v>0.12520000000000001</v>
       </c>
       <c r="AD8" s="42">
-        <f>[12]LME_l_t_r2!$B$3</f>
+        <f>[13]LME_l_t_r2!$B$3</f>
         <v>0.50228895795003903</v>
       </c>
       <c r="AE8" s="44">
-        <f>[12]LME_l_t_r2!$B$2</f>
+        <f>[13]LME_l_t_r2!$B$2</f>
         <v>0.70920915396352202</v>
       </c>
     </row>
@@ -12654,107 +12458,107 @@
         <v>275.44200000000001</v>
       </c>
       <c r="F9" s="21">
-        <f>[15]LME_h_t_b1!$C$2</f>
+        <f>[14]LME_h_t_b1!$C$2</f>
         <v>2.94</v>
       </c>
       <c r="G9" s="14">
-        <f>[15]LME_h_t_b1!$D$2</f>
+        <f>[14]LME_h_t_b1!$D$2</f>
         <v>7.04</v>
       </c>
       <c r="H9" s="14">
-        <f>[15]LME_h_t_b1!$E$2</f>
+        <f>[14]LME_h_t_b1!$E$2</f>
         <v>0.41799999999999998</v>
       </c>
       <c r="I9" s="20">
-        <f>[15]LME_h_t_b1!$G$2</f>
+        <f>[14]LME_h_t_b1!$G$2</f>
         <v>0.99990000000000001</v>
       </c>
       <c r="J9" s="21">
-        <f>[15]LME_h_t_b1!$C$3</f>
+        <f>[14]LME_h_t_b1!$C$3</f>
         <v>-5.2039999999999997</v>
       </c>
       <c r="K9" s="17">
-        <f>[15]LME_h_t_b1!$D$3</f>
+        <f>[14]LME_h_t_b1!$D$3</f>
         <v>7.2039999999999997</v>
       </c>
       <c r="L9" s="17">
-        <f>[15]LME_h_t_b1!$E$3</f>
+        <f>[14]LME_h_t_b1!$E$3</f>
         <v>-0.72199999999999998</v>
       </c>
-      <c r="M9" s="74">
-        <f>[15]LME_h_t_b1!$G$3</f>
+      <c r="M9" s="71">
+        <f>[14]LME_h_t_b1!$G$3</f>
         <v>0.99990000000000001</v>
       </c>
       <c r="N9" s="21">
-        <f>[15]LME_h_t_b1!$C$4</f>
+        <f>[14]LME_h_t_b1!$C$4</f>
         <v>-37.003</v>
       </c>
       <c r="O9" s="17">
-        <f>[15]LME_h_t_b1!$D$4</f>
+        <f>[14]LME_h_t_b1!$D$4</f>
         <v>15.519</v>
       </c>
       <c r="P9" s="17">
-        <f>[15]LME_h_t_b1!$E$4</f>
+        <f>[14]LME_h_t_b1!$E$4</f>
         <v>-2.3839999999999999</v>
       </c>
-      <c r="Q9" s="74">
-        <f>[15]LME_h_t_b1!$G$4</f>
+      <c r="Q9" s="71">
+        <f>[14]LME_h_t_b1!$G$4</f>
         <v>0.18729999999999999</v>
       </c>
       <c r="R9" s="21">
-        <f>[15]LME_h_t_b1!$C$5</f>
+        <f>[14]LME_h_t_b1!$C$5</f>
         <v>-8.1560000000000006</v>
       </c>
       <c r="S9" s="17">
-        <f>[15]LME_h_t_b1!$D$5</f>
+        <f>[14]LME_h_t_b1!$D$5</f>
         <v>6.8659999999999997</v>
       </c>
       <c r="T9" s="17">
-        <f>[15]LME_h_t_b1!$E$5</f>
+        <f>[14]LME_h_t_b1!$E$5</f>
         <v>-1.1879999999999999</v>
       </c>
-      <c r="U9" s="74">
-        <f>[15]LME_h_t_b1!$G$5</f>
+      <c r="U9" s="71">
+        <f>[14]LME_h_t_b1!$G$5</f>
         <v>0.99990000000000001</v>
       </c>
       <c r="V9" s="21">
-        <f>[15]LME_h_t_b1!$C$6</f>
+        <f>[14]LME_h_t_b1!$C$6</f>
         <v>-39.918999999999997</v>
       </c>
       <c r="W9" s="17">
-        <f>[15]LME_h_t_b1!$D$6</f>
+        <f>[14]LME_h_t_b1!$D$6</f>
         <v>17.343</v>
       </c>
       <c r="X9" s="17">
-        <f>[15]LME_h_t_b1!$E$6</f>
+        <f>[14]LME_h_t_b1!$E$6</f>
         <v>-2.302</v>
       </c>
-      <c r="Y9" s="74">
-        <f>[15]LME_h_t_b1!$G$6</f>
+      <c r="Y9" s="71">
+        <f>[14]LME_h_t_b1!$G$6</f>
         <v>0.2107</v>
       </c>
       <c r="Z9" s="21">
-        <f>[15]LME_h_t_b1!$C$7</f>
+        <f>[14]LME_h_t_b1!$C$7</f>
         <v>-31.798999999999999</v>
       </c>
       <c r="AA9" s="17">
-        <f>[15]LME_h_t_b1!$D$7</f>
+        <f>[14]LME_h_t_b1!$D$7</f>
         <v>17.62</v>
       </c>
       <c r="AB9" s="17">
-        <f>[15]LME_h_t_b1!$E$7</f>
+        <f>[14]LME_h_t_b1!$E$7</f>
         <v>-1.8049999999999999</v>
       </c>
-      <c r="AC9" s="74">
-        <f>[15]LME_h_t_b1!$G$7</f>
+      <c r="AC9" s="71">
+        <f>[14]LME_h_t_b1!$G$7</f>
         <v>0.50439999999999996</v>
       </c>
       <c r="AD9" s="29">
-        <f>[14]LME_h_t_r2!$B$3</f>
+        <f>[15]LME_h_t_r2!$B$3</f>
         <v>0.170648229551289</v>
       </c>
       <c r="AE9" s="30">
-        <f>[14]LME_h_t_r2!$B$2</f>
+        <f>[15]LME_h_t_r2!$B$2</f>
         <v>0.43477936449820098</v>
       </c>
     </row>
@@ -12795,7 +12599,7 @@
       <c r="L10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="72" t="s">
+      <c r="M10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="N10" s="46" t="s">
@@ -12807,7 +12611,7 @@
       <c r="P10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="72" t="s">
+      <c r="Q10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="R10" s="46" t="s">
@@ -12819,7 +12623,7 @@
       <c r="T10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="72" t="s">
+      <c r="U10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="V10" s="46" t="s">
@@ -12831,7 +12635,7 @@
       <c r="X10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="72" t="s">
+      <c r="Y10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="Z10" s="46" t="s">
@@ -12843,7 +12647,7 @@
       <c r="AB10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="72" t="s">
+      <c r="AC10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="AD10" s="60" t="s">
@@ -12894,7 +12698,7 @@
       <c r="L11" s="23">
         <v>0.88600000000000001</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="73">
         <v>0.99990000000000001</v>
       </c>
       <c r="N11" s="31">
@@ -12906,7 +12710,7 @@
       <c r="P11" s="23">
         <v>3.254</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="73">
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="R11" s="31">
@@ -12918,7 +12722,7 @@
       <c r="T11" s="23">
         <v>-0.25900000000000001</v>
       </c>
-      <c r="U11" s="76">
+      <c r="U11" s="73">
         <v>0.99990000000000001</v>
       </c>
       <c r="V11" s="31">
@@ -12930,7 +12734,7 @@
       <c r="X11" s="23">
         <v>2.9830000000000001</v>
       </c>
-      <c r="Y11" s="76">
+      <c r="Y11" s="73">
         <v>7.8200000000000006E-2</v>
       </c>
       <c r="Z11" s="31">
@@ -12942,7 +12746,7 @@
       <c r="AB11" s="23">
         <v>2.5059999999999998</v>
       </c>
-      <c r="AC11" s="76">
+      <c r="AC11" s="73">
         <v>0.15440000000000001</v>
       </c>
       <c r="AD11" s="31">
@@ -12965,48 +12769,49 @@
       <c r="H16" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:AC1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I6 M3:M6 Q3:Q6 U3:U6 Y3:Y6 AC3:AC6 AC11 Y11 U11 Q11 M11 I11 AC8:AC9 Y8:Y9 U8:U9 Q8:Q9 M8:M9 I8:I9">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="12" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7 M7 Q7 U7 Y7 AC7">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 M10 Q10 U10 Y10 AC10">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13023,7 +12828,7 @@
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13032,124 +12837,124 @@
     <col min="2" max="6" width="6.33203125" style="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="71" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="68" customWidth="1"/>
     <col min="10" max="11" width="6.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="6.33203125" style="7" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" style="7" customWidth="1"/>
     <col min="14" max="15" width="6.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="6.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="68" customWidth="1"/>
     <col min="18" max="19" width="6.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="6.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" style="71" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="68" customWidth="1"/>
     <col min="22" max="23" width="6.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="6.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" style="71" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" style="68" customWidth="1"/>
     <col min="26" max="27" width="6.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="6.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" style="71" customWidth="1"/>
+    <col min="29" max="29" width="6.33203125" style="68" customWidth="1"/>
     <col min="30" max="31" width="6.33203125" style="7" customWidth="1"/>
     <col min="32" max="16384" width="13.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="134" t="s">
+      <c r="A1" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="137" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="138" t="s">
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="139"/>
+      <c r="AE1" s="150"/>
     </row>
     <row r="2" spans="1:31" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141" t="s">
+      <c r="A2" s="144"/>
+      <c r="B2" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="143" t="s">
+      <c r="E2" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="144" t="s">
+      <c r="F2" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145" t="s">
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145" t="s">
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145" t="s">
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145" t="s">
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145" t="s">
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="144" t="s">
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="153"/>
+      <c r="AD2" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="146"/>
+      <c r="AE2" s="153"/>
     </row>
     <row r="3" spans="1:31" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="121" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -13164,82 +12969,82 @@
       <c r="E3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="130" t="s">
+      <c r="H3" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="132" t="s">
+      <c r="N3" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="132" t="s">
+      <c r="O3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="113" t="s">
+      <c r="P3" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="131" t="s">
+      <c r="Q3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="132" t="s">
+      <c r="R3" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="132" t="s">
+      <c r="S3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="113" t="s">
+      <c r="T3" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="131" t="s">
+      <c r="U3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="132" t="s">
+      <c r="V3" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="132" t="s">
+      <c r="W3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="113" t="s">
+      <c r="X3" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="131" t="s">
+      <c r="Y3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="132" t="s">
+      <c r="Z3" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="132" t="s">
+      <c r="AA3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="113" t="s">
+      <c r="AB3" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="131" t="s">
+      <c r="AC3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="113" t="s">
+      <c r="AD3" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="113" t="s">
+      <c r="AE3" s="108" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13271,11 +13076,11 @@
         <f>'summary chart'!G4</f>
         <v>0.34899999999999998</v>
       </c>
-      <c r="H4" s="126">
+      <c r="H4" s="117">
         <f>'summary chart'!H4</f>
         <v>1.2430000000000001</v>
       </c>
-      <c r="I4" s="147">
+      <c r="I4" s="127">
         <f>'summary chart'!I4</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13291,7 +13096,7 @@
         <f>'summary chart'!L4</f>
         <v>5.2350000000000003</v>
       </c>
-      <c r="M4" s="151">
+      <c r="M4" s="131">
         <f>'summary chart'!M4</f>
         <v>1.6999999999999999E-3</v>
       </c>
@@ -13307,7 +13112,7 @@
         <f>'summary chart'!P4</f>
         <v>7.63</v>
       </c>
-      <c r="Q4" s="151">
+      <c r="Q4" s="131">
         <f>'summary chart'!Q4</f>
         <v>8.3640000000000006E-5</v>
       </c>
@@ -13323,7 +13128,7 @@
         <f>'summary chart'!T4</f>
         <v>3.1760000000000002</v>
       </c>
-      <c r="U4" s="151">
+      <c r="U4" s="131">
         <f>'summary chart'!U4</f>
         <v>8.3640000000000006E-5</v>
       </c>
@@ -13339,7 +13144,7 @@
         <f>'summary chart'!X4</f>
         <v>5.2809999999999997</v>
       </c>
-      <c r="Y4" s="151">
+      <c r="Y4" s="131">
         <f>'summary chart'!Y4</f>
         <v>1.6999999999999999E-3</v>
       </c>
@@ -13355,7 +13160,7 @@
         <f>'summary chart'!AB4</f>
         <v>3.84</v>
       </c>
-      <c r="AC4" s="75">
+      <c r="AC4" s="72">
         <f>'summary chart'!AC4</f>
         <v>1.6E-2</v>
       </c>
@@ -13396,11 +13201,11 @@
         <f>'summary chart'!G5</f>
         <v>0.34899999999999998</v>
       </c>
-      <c r="H5" s="126">
+      <c r="H5" s="117">
         <f>'summary chart'!H5</f>
         <v>1.2430000000000001</v>
       </c>
-      <c r="I5" s="148">
+      <c r="I5" s="128">
         <f>'summary chart'!I5</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13416,7 +13221,7 @@
         <f>'summary chart'!L5</f>
         <v>5.2350000000000003</v>
       </c>
-      <c r="M5" s="152">
+      <c r="M5" s="132">
         <f>'summary chart'!M5</f>
         <v>1.6999999999999999E-3</v>
       </c>
@@ -13432,7 +13237,7 @@
         <f>'summary chart'!P5</f>
         <v>7.63</v>
       </c>
-      <c r="Q5" s="152">
+      <c r="Q5" s="132">
         <f>'summary chart'!Q5</f>
         <v>8.3640000000000006E-5</v>
       </c>
@@ -13448,7 +13253,7 @@
         <f>'summary chart'!T5</f>
         <v>3.1760000000000002</v>
       </c>
-      <c r="U5" s="152">
+      <c r="U5" s="132">
         <f>'summary chart'!U5</f>
         <v>4.99E-2</v>
       </c>
@@ -13464,7 +13269,7 @@
         <f>'summary chart'!X5</f>
         <v>5.2809999999999997</v>
       </c>
-      <c r="Y5" s="152">
+      <c r="Y5" s="132">
         <f>'summary chart'!Y5</f>
         <v>1.6999999999999999E-3</v>
       </c>
@@ -13480,7 +13285,7 @@
         <f>'summary chart'!AB5</f>
         <v>3.84</v>
       </c>
-      <c r="AC5" s="74">
+      <c r="AC5" s="71">
         <f>'summary chart'!AC5</f>
         <v>1.6E-2</v>
       </c>
@@ -13521,11 +13326,11 @@
         <f>'summary chart'!G6</f>
         <v>0.32100000000000001</v>
       </c>
-      <c r="H6" s="126">
+      <c r="H6" s="117">
         <f>'summary chart'!H6</f>
         <v>1.1359999999999999</v>
       </c>
-      <c r="I6" s="148">
+      <c r="I6" s="128">
         <f>'summary chart'!I6</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13541,7 +13346,7 @@
         <f>'summary chart'!L6</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="M6" s="152">
+      <c r="M6" s="132">
         <f>'summary chart'!M6</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13557,7 +13362,7 @@
         <f>'summary chart'!P6</f>
         <v>4.2030000000000003</v>
       </c>
-      <c r="Q6" s="152">
+      <c r="Q6" s="132">
         <f>'summary chart'!Q6</f>
         <v>1.24E-2</v>
       </c>
@@ -13573,7 +13378,7 @@
         <f>'summary chart'!T6</f>
         <v>-0.64600000000000002</v>
       </c>
-      <c r="U6" s="152">
+      <c r="U6" s="132">
         <f>'summary chart'!U6</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13589,7 +13394,7 @@
         <f>'summary chart'!X6</f>
         <v>3.3570000000000002</v>
       </c>
-      <c r="Y6" s="152">
+      <c r="Y6" s="132">
         <f>'summary chart'!Y6</f>
         <v>4.0599999999999997E-2</v>
       </c>
@@ -13605,7 +13410,7 @@
         <f>'summary chart'!AB6</f>
         <v>5.0060000000000002</v>
       </c>
-      <c r="AC6" s="74">
+      <c r="AC6" s="71">
         <f>'summary chart'!AC6</f>
         <v>2.7000000000000001E-3</v>
       </c>
@@ -13634,76 +13439,76 @@
       <c r="E7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="125" t="s">
+      <c r="F7" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="149" t="s">
+      <c r="I7" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="125" t="s">
+      <c r="K7" s="116" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="153" t="s">
+      <c r="M7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="125" t="s">
+      <c r="N7" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="125" t="s">
+      <c r="O7" s="116" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="153" t="s">
+      <c r="Q7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="125" t="s">
+      <c r="R7" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="125" t="s">
+      <c r="S7" s="116" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="153" t="s">
+      <c r="U7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="V7" s="125" t="s">
+      <c r="V7" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="125" t="s">
+      <c r="W7" s="116" t="s">
         <v>10</v>
       </c>
       <c r="X7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="153" t="s">
+      <c r="Y7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="Z7" s="125" t="s">
+      <c r="Z7" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="AA7" s="125" t="s">
+      <c r="AA7" s="116" t="s">
         <v>10</v>
       </c>
       <c r="AB7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="155" t="s">
+      <c r="AC7" s="135" t="s">
         <v>9</v>
       </c>
       <c r="AD7" s="18" t="s">
@@ -13741,11 +13546,11 @@
         <f>'summary chart'!G8</f>
         <v>3.262</v>
       </c>
-      <c r="H8" s="126">
+      <c r="H8" s="117">
         <f>'summary chart'!H8</f>
         <v>0.19400000000000001</v>
       </c>
-      <c r="I8" s="148">
+      <c r="I8" s="128">
         <f>'summary chart'!I8</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13761,7 +13566,7 @@
         <f>'summary chart'!L8</f>
         <v>-0.52100000000000002</v>
       </c>
-      <c r="M8" s="152">
+      <c r="M8" s="132">
         <f>'summary chart'!M8</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13777,7 +13582,7 @@
         <f>'summary chart'!P8</f>
         <v>-3.3370000000000002</v>
       </c>
-      <c r="Q8" s="152">
+      <c r="Q8" s="132">
         <f>'summary chart'!Q8</f>
         <v>3.7600000000000001E-2</v>
       </c>
@@ -13793,7 +13598,7 @@
         <f>'summary chart'!T8</f>
         <v>-0.79800000000000004</v>
       </c>
-      <c r="U8" s="152">
+      <c r="U8" s="132">
         <f>'summary chart'!U8</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13809,7 +13614,7 @@
         <f>'summary chart'!X8</f>
         <v>-3.5329999999999999</v>
       </c>
-      <c r="Y8" s="152">
+      <c r="Y8" s="132">
         <f>'summary chart'!Y8</f>
         <v>2.7099999999999999E-2</v>
       </c>
@@ -13825,7 +13630,7 @@
         <f>'summary chart'!AB8</f>
         <v>-2.6320000000000001</v>
       </c>
-      <c r="AC8" s="74">
+      <c r="AC8" s="71">
         <f>'summary chart'!AC8</f>
         <v>0.12520000000000001</v>
       </c>
@@ -13866,11 +13671,11 @@
         <f>'summary chart'!G9</f>
         <v>7.04</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="117">
         <f>'summary chart'!H9</f>
         <v>0.41799999999999998</v>
       </c>
-      <c r="I9" s="148">
+      <c r="I9" s="128">
         <f>'summary chart'!I9</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13886,7 +13691,7 @@
         <f>'summary chart'!L9</f>
         <v>-0.72199999999999998</v>
       </c>
-      <c r="M9" s="152">
+      <c r="M9" s="132">
         <f>'summary chart'!M9</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13902,7 +13707,7 @@
         <f>'summary chart'!P9</f>
         <v>-2.3839999999999999</v>
       </c>
-      <c r="Q9" s="152">
+      <c r="Q9" s="132">
         <f>'summary chart'!Q9</f>
         <v>0.18729999999999999</v>
       </c>
@@ -13918,7 +13723,7 @@
         <f>'summary chart'!T9</f>
         <v>-1.1879999999999999</v>
       </c>
-      <c r="U9" s="152">
+      <c r="U9" s="132">
         <f>'summary chart'!U9</f>
         <v>0.99990000000000001</v>
       </c>
@@ -13934,7 +13739,7 @@
         <f>'summary chart'!X9</f>
         <v>-2.302</v>
       </c>
-      <c r="Y9" s="152">
+      <c r="Y9" s="132">
         <f>'summary chart'!Y9</f>
         <v>0.2107</v>
       </c>
@@ -13950,7 +13755,7 @@
         <f>'summary chart'!AB9</f>
         <v>-1.8049999999999999</v>
       </c>
-      <c r="AC9" s="74">
+      <c r="AC9" s="71">
         <f>'summary chart'!AC9</f>
         <v>0.50439999999999996</v>
       </c>
@@ -13979,76 +13784,76 @@
       <c r="E10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="149" t="s">
+      <c r="I10" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="125" t="s">
+      <c r="J10" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="125" t="s">
+      <c r="K10" s="116" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="153" t="s">
+      <c r="M10" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="125" t="s">
+      <c r="N10" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="125" t="s">
+      <c r="O10" s="116" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="153" t="s">
+      <c r="Q10" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="125" t="s">
+      <c r="R10" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="125" t="s">
+      <c r="S10" s="116" t="s">
         <v>10</v>
       </c>
       <c r="T10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="153" t="s">
+      <c r="U10" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="125" t="s">
+      <c r="V10" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="125" t="s">
+      <c r="W10" s="116" t="s">
         <v>10</v>
       </c>
       <c r="X10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="153" t="s">
+      <c r="Y10" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="125" t="s">
+      <c r="Z10" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="AA10" s="125" t="s">
+      <c r="AA10" s="116" t="s">
         <v>10</v>
       </c>
       <c r="AB10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="155" t="s">
+      <c r="AC10" s="135" t="s">
         <v>9</v>
       </c>
       <c r="AD10" s="18" t="s">
@@ -14086,11 +13891,11 @@
         <f>'summary chart'!G11</f>
         <v>2.16</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="117">
         <f>'summary chart'!H11</f>
         <v>1.0229999999999999</v>
       </c>
-      <c r="I11" s="150">
+      <c r="I11" s="130">
         <f>'summary chart'!I11</f>
         <v>0.99990000000000001</v>
       </c>
@@ -14106,7 +13911,7 @@
         <f>'summary chart'!L11</f>
         <v>0.88600000000000001</v>
       </c>
-      <c r="M11" s="154">
+      <c r="M11" s="134">
         <f>'summary chart'!M11</f>
         <v>0.99990000000000001</v>
       </c>
@@ -14122,7 +13927,7 @@
         <f>'summary chart'!P11</f>
         <v>3.254</v>
       </c>
-      <c r="Q11" s="154">
+      <c r="Q11" s="134">
         <f>'summary chart'!Q11</f>
         <v>4.6100000000000002E-2</v>
       </c>
@@ -14138,7 +13943,7 @@
         <f>'summary chart'!T11</f>
         <v>-0.25900000000000001</v>
       </c>
-      <c r="U11" s="154">
+      <c r="U11" s="134">
         <f>'summary chart'!U11</f>
         <v>0.99990000000000001</v>
       </c>
@@ -14154,7 +13959,7 @@
         <f>'summary chart'!X11</f>
         <v>2.9830000000000001</v>
       </c>
-      <c r="Y11" s="154">
+      <c r="Y11" s="134">
         <f>'summary chart'!Y11</f>
         <v>7.8200000000000006E-2</v>
       </c>
@@ -14170,11 +13975,11 @@
         <f>'summary chart'!AB11</f>
         <v>2.5059999999999998</v>
       </c>
-      <c r="AC11" s="76">
+      <c r="AC11" s="73">
         <f>'summary chart'!AC11</f>
         <v>0.15440000000000001</v>
       </c>
-      <c r="AD11" s="128">
+      <c r="AD11" s="119">
         <f>'summary chart'!AD11</f>
         <v>6.2548362042847402E-2</v>
       </c>
@@ -14187,6 +13992,7 @@
       <c r="M22" s="12"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
@@ -14201,29 +14007,29 @@
     <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 M3 Q3 U3 Y3 AC3">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",AD11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I11 M4:M11 Q4:Q11 U4:U11 AC4:AC11 Y4:Y11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14236,9 +14042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5255F7A-A6AF-457A-9C51-B5CF235E90D7}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14248,122 +14052,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="63" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="88">
         <f>'model tab'!B2</f>
         <v>97.004000000000005</v>
       </c>
-      <c r="C2" s="66">
+      <c r="C2" s="63">
         <f>'model tab'!B8</f>
         <v>312.44499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="88">
         <f>'model tab'!H2</f>
         <v>87.817999999999998</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="63">
         <f>'model tab'!H8</f>
         <v>91.525000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="92"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="63" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="88">
         <f>'model tab'!B3</f>
         <v>97.638000000000005</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="63">
         <f>'model tab'!B9</f>
         <v>315.411</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="88">
         <f>'model tab'!H3</f>
         <v>87.902000000000001</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="63">
         <f>'model tab'!H9</f>
         <v>91.96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="92"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="63" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="63">
         <f>'model tab'!B4</f>
         <v>94.364999999999995</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="63">
         <f>'model tab'!B10</f>
         <v>307.24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="63">
         <f>'model tab'!H4</f>
         <v>89.566000000000003</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="63">
         <f>'model tab'!H10</f>
         <v>93.355000000000004</v>
       </c>
@@ -14374,218 +14178,219 @@
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="63" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="63">
         <f>'model tab'!B5</f>
         <v>70.567999999999998</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="63">
         <f>'model tab'!B11</f>
         <v>275.44200000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="63">
         <f>'model tab'!H5</f>
         <v>90.822999999999993</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="63">
         <f>'model tab'!H11</f>
         <v>96.27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="89"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="80"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="76" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="95">
+      <c r="B19" s="92">
         <f>'model tab'!C2</f>
         <v>5.9859999999999998</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="76">
         <f>'model tab'!C8</f>
         <v>14.731</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="95">
+      <c r="B20" s="92">
         <f>'model tab'!I2</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="76">
         <f>'model tab'!I8</f>
         <v>1.236</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="82"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="76" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="92">
         <f>'model tab'!C3</f>
         <v>6.1849999999999996</v>
       </c>
-      <c r="C23" s="79">
+      <c r="C23" s="76">
         <f>'model tab'!C9</f>
         <v>14.776</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="95">
+      <c r="B24" s="92">
         <f>'model tab'!I3</f>
         <v>1.165</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="76">
         <f>'model tab'!I9</f>
         <v>1.1060000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="83"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="80"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="76" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="79">
+      <c r="B27" s="76">
         <f>'model tab'!C4</f>
         <v>6.46</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="76">
         <f>'model tab'!C10</f>
         <v>14.334</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="79">
+      <c r="B28" s="76">
         <f>'model tab'!I4</f>
         <v>1.234</v>
       </c>
-      <c r="C28" s="79">
+      <c r="C28" s="76">
         <f>'model tab'!I10</f>
         <v>1.105</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="76" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="79">
+      <c r="B31" s="76">
         <f>'model tab'!C5</f>
         <v>9.718</v>
       </c>
-      <c r="C31" s="79">
+      <c r="C31" s="76">
         <f>'model tab'!C11</f>
         <v>21.504999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="79">
+      <c r="B32" s="76">
         <f>'model tab'!I5</f>
         <v>1.4550000000000001</v>
       </c>
-      <c r="C32" s="79">
+      <c r="C32" s="76">
         <f>'model tab'!I11</f>
         <v>1.415</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ch_7_Sentence_Modes/output/confidence intervals and means_2022.xlsx
+++ b/Ch_7_Sentence_Modes/output/confidence intervals and means_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B71593-6F44-42D8-B610-8D0125A83095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43BD4F1-7DAF-485C-A580-15C5604D3588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="7392" yWindow="2544" windowWidth="14772" windowHeight="8124" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="model tab" sheetId="1" r:id="rId1"/>
@@ -1377,6 +1377,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1431,417 +1437,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="11" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="71">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1986,6 +1586,71 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF333333"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -2155,6 +1820,71 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF333333"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -2324,6 +2054,71 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -2494,6 +2289,72 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF333333"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -2646,6 +2507,72 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2829,6 +2756,72 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF333333"/>
         <name val="Times New Roman"/>
         <family val="1"/>
@@ -2985,6 +2978,13 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3617,10 +3617,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>5.9859999999999998</c:v>
+                    <c:v>5.9939999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.731</c:v>
+                    <c:v>13.734</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3632,10 +3632,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>5.9859999999999998</c:v>
+                    <c:v>5.9939999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.731</c:v>
+                    <c:v>13.734</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3660,7 +3660,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>1.1100000000000001</c:v>
+                    <c:v>1.109</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.236</c:v>
@@ -3675,7 +3675,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>1.1100000000000001</c:v>
+                    <c:v>1.109</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.236</c:v>
@@ -3698,10 +3698,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.004000000000005</c:v>
+                  <c:v>97.174999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>312.44499999999999</c:v>
+                  <c:v>314.53699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3713,10 +3713,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>87.817999999999998</c:v>
+                  <c:v>87.811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.525000000000006</c:v>
+                  <c:v>91.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,10 +3775,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>6.1849999999999996</c:v>
+                    <c:v>6.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.776</c:v>
+                    <c:v>13.946999999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3790,10 +3790,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>6.1849999999999996</c:v>
+                    <c:v>6.2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.776</c:v>
+                    <c:v>13.946999999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3821,7 +3821,7 @@
                     <c:v>1.165</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1060000000000001</c:v>
+                    <c:v>1.107</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3836,7 +3836,7 @@
                     <c:v>1.165</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1060000000000001</c:v>
+                    <c:v>1.107</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3856,10 +3856,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.638000000000005</c:v>
+                  <c:v>97.765000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315.411</c:v>
+                  <c:v>317.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3871,10 +3871,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>87.902000000000001</c:v>
+                  <c:v>87.896000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.96</c:v>
+                  <c:v>92.022999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3933,10 +3933,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>6.46</c:v>
+                    <c:v>6.4409999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.334</c:v>
+                    <c:v>13.318</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3948,10 +3948,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>6.46</c:v>
+                    <c:v>6.4409999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.334</c:v>
+                    <c:v>13.318</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3976,10 +3976,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>1.234</c:v>
+                    <c:v>1.2330000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.105</c:v>
+                    <c:v>1.1060000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3991,10 +3991,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>1.234</c:v>
+                    <c:v>1.2330000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.105</c:v>
+                    <c:v>1.1060000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4014,10 +4014,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>94.364999999999995</c:v>
+                  <c:v>94.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>307.24</c:v>
+                  <c:v>309.33300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4029,10 +4029,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>89.566000000000003</c:v>
+                  <c:v>89.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.355000000000004</c:v>
+                  <c:v>93.418999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,10 +4094,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>9.718</c:v>
+                    <c:v>7.351</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>21.504999999999999</c:v>
+                    <c:v>12.585000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4109,10 +4109,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>9.718</c:v>
+                    <c:v>7.351</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>21.504999999999999</c:v>
+                    <c:v>12.585000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4140,7 +4140,7 @@
                     <c:v>1.4550000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.415</c:v>
+                    <c:v>1.4970000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4155,7 +4155,7 @@
                     <c:v>1.4550000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.415</c:v>
+                    <c:v>1.4970000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4175,10 +4175,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>70.567999999999998</c:v>
+                  <c:v>75.019000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275.44200000000001</c:v>
+                  <c:v>292.33699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4193,7 +4193,7 @@
                   <c:v>90.822999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.27</c:v>
+                  <c:v>96.537000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4620,16 +4620,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5.9859999999999998</c:v>
+                    <c:v>5.9939999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.1849999999999996</c:v>
+                    <c:v>6.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.46</c:v>
+                    <c:v>6.4409999999999998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.718</c:v>
+                    <c:v>7.351</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4641,16 +4641,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5.9859999999999998</c:v>
+                    <c:v>5.9939999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.1849999999999996</c:v>
+                    <c:v>6.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.46</c:v>
+                    <c:v>6.4409999999999998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.718</c:v>
+                    <c:v>7.351</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4690,16 +4690,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>97.004000000000005</c:v>
+                  <c:v>97.174999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.638000000000005</c:v>
+                  <c:v>97.765000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.364999999999995</c:v>
+                  <c:v>94.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.567999999999998</c:v>
+                  <c:v>75.019000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4844,16 +4844,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>14.731</c:v>
+                    <c:v>13.734</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.776</c:v>
+                    <c:v>13.946999999999999</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.334</c:v>
+                    <c:v>13.318</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>21.504999999999999</c:v>
+                    <c:v>12.585000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4865,16 +4865,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>14.731</c:v>
+                    <c:v>13.734</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.776</c:v>
+                    <c:v>13.946999999999999</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.334</c:v>
+                    <c:v>13.318</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>21.504999999999999</c:v>
+                    <c:v>12.585000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4917,16 +4917,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>312.44499999999999</c:v>
+                  <c:v>314.53699999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315.411</c:v>
+                  <c:v>317.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307.24</c:v>
+                  <c:v>309.33300000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275.44200000000001</c:v>
+                  <c:v>292.33699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5306,13 +5306,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.1100000000000001</c:v>
+                    <c:v>1.109</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.165</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.234</c:v>
+                    <c:v>1.2330000000000001</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1.4550000000000001</c:v>
@@ -5327,13 +5327,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.1100000000000001</c:v>
+                    <c:v>1.109</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.165</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.234</c:v>
+                    <c:v>1.2330000000000001</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1.4550000000000001</c:v>
@@ -5372,13 +5372,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>87.817999999999998</c:v>
+                  <c:v>87.811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.902000000000001</c:v>
+                  <c:v>87.896000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.566000000000003</c:v>
+                  <c:v>89.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>90.822999999999993</c:v>
@@ -5531,13 +5531,13 @@
                     <c:v>1.236</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.107</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>1.1060000000000001</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.105</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.415</c:v>
+                    <c:v>1.4970000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5552,13 +5552,13 @@
                     <c:v>1.236</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.107</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>1.1060000000000001</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.105</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.415</c:v>
+                    <c:v>1.4970000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5601,16 +5601,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>91.525000000000006</c:v>
+                  <c:v>91.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.96</c:v>
+                  <c:v>92.022999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.355000000000004</c:v>
+                  <c:v>93.418999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.27</c:v>
+                  <c:v>96.537000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5673,16 +5673,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.52700000000000002</c:v>
+                    <c:v>0.51500000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.48299999999999998</c:v>
+                    <c:v>0.46400000000000002</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.58199999999999996</c:v>
+                    <c:v>0.57699999999999996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.63300000000000001</c:v>
+                    <c:v>0.70299999999999996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5694,16 +5694,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.52700000000000002</c:v>
+                    <c:v>0.51500000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.48299999999999998</c:v>
+                    <c:v>0.46400000000000002</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.58199999999999996</c:v>
+                    <c:v>0.57699999999999996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.63300000000000001</c:v>
+                    <c:v>0.70299999999999996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5746,16 +5746,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.1790000000000003</c:v>
+                  <c:v>5.1239999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5439999999999996</c:v>
+                  <c:v>5.4870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2640000000000002</c:v>
+                  <c:v>5.2080000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9429999999999996</c:v>
+                  <c:v>7.077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6695,16 +6695,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5.9859999999999998</c:v>
+                    <c:v>5.9939999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.1849999999999996</c:v>
+                    <c:v>6.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.46</c:v>
+                    <c:v>6.4409999999999998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.718</c:v>
+                    <c:v>7.351</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6716,16 +6716,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5.9859999999999998</c:v>
+                    <c:v>5.9939999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.1849999999999996</c:v>
+                    <c:v>6.2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.46</c:v>
+                    <c:v>6.4409999999999998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9.718</c:v>
+                    <c:v>7.351</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6765,16 +6765,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>97.004000000000005</c:v>
+                  <c:v>97.174999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.638000000000005</c:v>
+                  <c:v>97.765000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.364999999999995</c:v>
+                  <c:v>94.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.567999999999998</c:v>
+                  <c:v>75.019000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6906,16 +6906,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>14.731</c:v>
+                    <c:v>13.734</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.776</c:v>
+                    <c:v>13.946999999999999</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.334</c:v>
+                    <c:v>13.318</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>21.504999999999999</c:v>
+                    <c:v>12.585000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6927,16 +6927,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>14.731</c:v>
+                    <c:v>13.734</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.776</c:v>
+                    <c:v>13.946999999999999</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.334</c:v>
+                    <c:v>13.318</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>21.504999999999999</c:v>
+                    <c:v>12.585000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6979,16 +6979,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>312.44499999999999</c:v>
+                  <c:v>314.53699999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>315.411</c:v>
+                  <c:v>317.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307.24</c:v>
+                  <c:v>309.33300000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275.44200000000001</c:v>
+                  <c:v>292.33699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7354,13 +7354,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.1100000000000001</c:v>
+                    <c:v>1.109</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.165</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.234</c:v>
+                    <c:v>1.2330000000000001</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1.4550000000000001</c:v>
@@ -7375,13 +7375,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.1100000000000001</c:v>
+                    <c:v>1.109</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.165</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.234</c:v>
+                    <c:v>1.2330000000000001</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1.4550000000000001</c:v>
@@ -7420,13 +7420,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>87.817999999999998</c:v>
+                  <c:v>87.811999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.902000000000001</c:v>
+                  <c:v>87.896000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.566000000000003</c:v>
+                  <c:v>89.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>90.822999999999993</c:v>
@@ -7566,13 +7566,13 @@
                     <c:v>1.236</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.107</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>1.1060000000000001</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.105</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.415</c:v>
+                    <c:v>1.4970000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7587,13 +7587,13 @@
                     <c:v>1.236</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.107</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>1.1060000000000001</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.105</c:v>
-                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.415</c:v>
+                    <c:v>1.4970000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7636,16 +7636,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>91.525000000000006</c:v>
+                  <c:v>91.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.96</c:v>
+                  <c:v>92.022999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.355000000000004</c:v>
+                  <c:v>93.418999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.27</c:v>
+                  <c:v>96.537000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7708,16 +7708,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.52700000000000002</c:v>
+                    <c:v>0.51500000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.48299999999999998</c:v>
+                    <c:v>0.46400000000000002</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.58199999999999996</c:v>
+                    <c:v>0.57699999999999996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.63300000000000001</c:v>
+                    <c:v>0.70299999999999996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7729,16 +7729,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.52700000000000002</c:v>
+                    <c:v>0.51500000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.48299999999999998</c:v>
+                    <c:v>0.46400000000000002</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.58199999999999996</c:v>
+                    <c:v>0.57699999999999996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.63300000000000001</c:v>
+                    <c:v>0.70299999999999996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7781,16 +7781,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.1790000000000003</c:v>
+                  <c:v>5.1239999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5439999999999996</c:v>
+                  <c:v>5.4870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2640000000000002</c:v>
+                  <c:v>5.2080000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9429999999999996</c:v>
+                  <c:v>7.077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9382,46 +9382,46 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>97.004000000000005</v>
+            <v>97.174999999999997</v>
           </cell>
           <cell r="C2">
-            <v>5.9859999999999998</v>
+            <v>5.9939999999999998</v>
           </cell>
           <cell r="G2">
-            <v>1.4000000000000001E-7</v>
+            <v>1.4999999999999999E-7</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>97.638000000000005</v>
+            <v>97.765000000000001</v>
           </cell>
           <cell r="C3">
-            <v>6.1849999999999996</v>
+            <v>6.2</v>
           </cell>
           <cell r="G3">
-            <v>1.4999999999999999E-7</v>
+            <v>1.9000000000000001E-7</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>94.364999999999995</v>
+            <v>94.54</v>
           </cell>
           <cell r="C4">
-            <v>6.46</v>
+            <v>6.4409999999999998</v>
           </cell>
           <cell r="G4">
-            <v>2.1E-7</v>
+            <v>2.2000000000000001E-7</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>70.567999999999998</v>
+            <v>75.019000000000005</v>
           </cell>
           <cell r="C5">
-            <v>9.718</v>
+            <v>7.351</v>
           </cell>
           <cell r="G5">
-            <v>7.5439999999999996E-5</v>
+            <v>4.4100000000000001E-6</v>
           </cell>
         </row>
       </sheetData>
@@ -9440,13 +9440,13 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>0.36499999999999999</v>
+            <v>0.36299999999999999</v>
           </cell>
           <cell r="D2">
             <v>0.32100000000000001</v>
           </cell>
           <cell r="E2">
-            <v>1.1359999999999999</v>
+            <v>1.1299999999999999</v>
           </cell>
           <cell r="G2">
             <v>0.99990000000000001</v>
@@ -9454,13 +9454,13 @@
         </row>
         <row r="3">
           <cell r="C3">
-            <v>8.5999999999999993E-2</v>
+            <v>8.4000000000000005E-2</v>
           </cell>
           <cell r="D3">
-            <v>0.33400000000000002</v>
+            <v>0.33600000000000002</v>
           </cell>
           <cell r="E3">
-            <v>0.25600000000000001</v>
+            <v>0.25</v>
           </cell>
           <cell r="G3">
             <v>0.99990000000000001</v>
@@ -9468,27 +9468,27 @@
         </row>
         <row r="4">
           <cell r="C4">
-            <v>1.764</v>
+            <v>1.9530000000000001</v>
           </cell>
           <cell r="D4">
-            <v>0.42</v>
+            <v>0.45900000000000002</v>
           </cell>
           <cell r="E4">
-            <v>4.2030000000000003</v>
+            <v>4.2549999999999999</v>
           </cell>
           <cell r="G4">
-            <v>1.24E-2</v>
+            <v>1.0200000000000001E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>-0.28000000000000003</v>
+            <v>-0.27900000000000003</v>
           </cell>
           <cell r="D5">
-            <v>0.433</v>
+            <v>0.434</v>
           </cell>
           <cell r="E5">
-            <v>-0.64600000000000002</v>
+            <v>-0.64200000000000002</v>
           </cell>
           <cell r="G5">
             <v>0.99990000000000001</v>
@@ -9496,30 +9496,30 @@
         </row>
         <row r="6">
           <cell r="C6">
-            <v>1.399</v>
+            <v>1.59</v>
           </cell>
           <cell r="D6">
-            <v>0.41699999999999998</v>
+            <v>0.51300000000000001</v>
           </cell>
           <cell r="E6">
-            <v>3.3570000000000002</v>
+            <v>3.0990000000000002</v>
           </cell>
           <cell r="G6">
-            <v>4.0599999999999997E-2</v>
+            <v>5.8200000000000002E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>1.6779999999999999</v>
+            <v>1.869</v>
           </cell>
           <cell r="D7">
-            <v>0.33500000000000002</v>
+            <v>0.27500000000000002</v>
           </cell>
           <cell r="E7">
-            <v>5.0060000000000002</v>
+            <v>6.7990000000000004</v>
           </cell>
           <cell r="G7">
-            <v>2.7000000000000001E-3</v>
+            <v>2.8774999999999997E-4</v>
           </cell>
         </row>
       </sheetData>
@@ -9538,12 +9538,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.56045733646622098</v>
+            <v>0.65060167396938096</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.18725760823075199</v>
+            <v>0.22171888117195901</v>
           </cell>
         </row>
       </sheetData>
@@ -9562,13 +9562,13 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>0.63400000000000001</v>
+            <v>0.58899999999999997</v>
           </cell>
           <cell r="D2">
-            <v>3.262</v>
+            <v>3.25</v>
           </cell>
           <cell r="E2">
-            <v>0.19400000000000001</v>
+            <v>0.18099999999999999</v>
           </cell>
           <cell r="G2">
             <v>0.99990000000000001</v>
@@ -9576,10 +9576,10 @@
         </row>
         <row r="3">
           <cell r="C3">
-            <v>-2.64</v>
+            <v>-2.6360000000000001</v>
           </cell>
           <cell r="D3">
-            <v>5.0679999999999996</v>
+            <v>5.0640000000000001</v>
           </cell>
           <cell r="E3">
             <v>-0.52100000000000002</v>
@@ -9590,27 +9590,27 @@
         </row>
         <row r="4">
           <cell r="C4">
-            <v>-26.436</v>
+            <v>-22.155999999999999</v>
           </cell>
           <cell r="D4">
-            <v>7.9219999999999997</v>
+            <v>5.3460000000000001</v>
           </cell>
           <cell r="E4">
-            <v>-3.3370000000000002</v>
+            <v>-4.1440000000000001</v>
           </cell>
           <cell r="G4">
-            <v>3.7600000000000001E-2</v>
+            <v>1.0200000000000001E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>-3.274</v>
+            <v>-3.2250000000000001</v>
           </cell>
           <cell r="D5">
-            <v>4.1040000000000001</v>
+            <v>4.0860000000000003</v>
           </cell>
           <cell r="E5">
-            <v>-0.79800000000000004</v>
+            <v>-0.78900000000000003</v>
           </cell>
           <cell r="G5">
             <v>0.99990000000000001</v>
@@ -9618,30 +9618,30 @@
         </row>
         <row r="6">
           <cell r="C6">
-            <v>-27.07</v>
+            <v>-22.745000000000001</v>
           </cell>
           <cell r="D6">
-            <v>7.6630000000000003</v>
+            <v>4.2850000000000001</v>
           </cell>
           <cell r="E6">
-            <v>-3.5329999999999999</v>
+            <v>-5.3079999999999998</v>
           </cell>
           <cell r="G6">
-            <v>2.7099999999999999E-2</v>
+            <v>1.9E-3</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>-23.795999999999999</v>
+            <v>-19.52</v>
           </cell>
           <cell r="D7">
-            <v>9.0410000000000004</v>
+            <v>5.3170000000000002</v>
           </cell>
           <cell r="E7">
-            <v>-2.6320000000000001</v>
+            <v>-3.6709999999999998</v>
           </cell>
           <cell r="G7">
-            <v>0.12520000000000001</v>
+            <v>2.1600000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -9660,12 +9660,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.70920915396352202</v>
+            <v>0.804796533837705</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.50228895795003903</v>
+            <v>0.60883047720371697</v>
           </cell>
         </row>
       </sheetData>
@@ -9684,13 +9684,13 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>2.94</v>
+            <v>3.0430000000000001</v>
           </cell>
           <cell r="D2">
-            <v>7.04</v>
+            <v>5.1609999999999996</v>
           </cell>
           <cell r="E2">
-            <v>0.41799999999999998</v>
+            <v>0.59</v>
           </cell>
           <cell r="G2">
             <v>0.99990000000000001</v>
@@ -9698,13 +9698,13 @@
         </row>
         <row r="3">
           <cell r="C3">
-            <v>-5.2039999999999997</v>
+            <v>-5.2030000000000003</v>
           </cell>
           <cell r="D3">
-            <v>7.2039999999999997</v>
+            <v>5.0330000000000004</v>
           </cell>
           <cell r="E3">
-            <v>-0.72199999999999998</v>
+            <v>-1.034</v>
           </cell>
           <cell r="G3">
             <v>0.99990000000000001</v>
@@ -9712,58 +9712,58 @@
         </row>
         <row r="4">
           <cell r="C4">
-            <v>-37.003</v>
+            <v>-22.199000000000002</v>
           </cell>
           <cell r="D4">
-            <v>15.519</v>
+            <v>7.1539999999999999</v>
           </cell>
           <cell r="E4">
-            <v>-2.3839999999999999</v>
+            <v>-3.1030000000000002</v>
           </cell>
           <cell r="G4">
-            <v>0.18729999999999999</v>
+            <v>5.2699999999999997E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>-8.1560000000000006</v>
+            <v>-8.2449999999999992</v>
           </cell>
           <cell r="D5">
-            <v>6.8659999999999997</v>
+            <v>5.3979999999999997</v>
           </cell>
           <cell r="E5">
-            <v>-1.1879999999999999</v>
+            <v>-1.528</v>
           </cell>
           <cell r="G5">
-            <v>0.99990000000000001</v>
+            <v>0.77780000000000005</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>-39.918999999999997</v>
+            <v>-25.242000000000001</v>
           </cell>
           <cell r="D6">
-            <v>17.343</v>
+            <v>7.359</v>
           </cell>
           <cell r="E6">
-            <v>-2.302</v>
+            <v>-3.43</v>
           </cell>
           <cell r="G6">
-            <v>0.2107</v>
+            <v>3.27E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>-31.798999999999999</v>
+            <v>-16.997</v>
           </cell>
           <cell r="D7">
-            <v>17.62</v>
+            <v>6.6849999999999996</v>
           </cell>
           <cell r="E7">
-            <v>-1.8049999999999999</v>
+            <v>-2.5430000000000001</v>
           </cell>
           <cell r="G7">
-            <v>0.50439999999999996</v>
+            <v>0.13739999999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -9782,12 +9782,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.43477936449820098</v>
+            <v>0.52587707090467395</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.170648229551289</v>
+            <v>0.27182797663312502</v>
           </cell>
         </row>
       </sheetData>
@@ -9803,13 +9803,13 @@
       <sheetName val="LME_l_f0_b0"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>87.817999999999998</v>
+            <v>87.811999999999998</v>
           </cell>
           <cell r="C2">
-            <v>1.1100000000000001</v>
+            <v>1.109</v>
           </cell>
           <cell r="G2">
             <v>0</v>
@@ -9817,7 +9817,7 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>87.902000000000001</v>
+            <v>87.896000000000001</v>
           </cell>
           <cell r="C3">
             <v>1.165</v>
@@ -9828,10 +9828,10 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>89.566000000000003</v>
+            <v>89.56</v>
           </cell>
           <cell r="C4">
-            <v>1.234</v>
+            <v>1.2330000000000001</v>
           </cell>
           <cell r="G4">
             <v>0</v>
@@ -9864,46 +9864,46 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>5.1790000000000003</v>
+            <v>5.1239999999999997</v>
           </cell>
           <cell r="C2">
-            <v>0.52700000000000002</v>
+            <v>0.51500000000000001</v>
           </cell>
           <cell r="G2">
-            <v>8.1899999999999995E-6</v>
+            <v>5.22E-6</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>5.5439999999999996</v>
+            <v>5.4870000000000001</v>
           </cell>
           <cell r="C3">
-            <v>0.48299999999999998</v>
+            <v>0.46400000000000002</v>
           </cell>
           <cell r="G3">
-            <v>3.1300000000000001E-6</v>
+            <v>1.1799999999999999E-6</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.2640000000000002</v>
+            <v>5.2080000000000002</v>
           </cell>
           <cell r="C4">
-            <v>0.58199999999999996</v>
+            <v>0.57699999999999996</v>
           </cell>
           <cell r="G4">
-            <v>4.7750000000000002E-5</v>
+            <v>3.4039999999999999E-5</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>6.9429999999999996</v>
+            <v>7.077</v>
           </cell>
           <cell r="C5">
-            <v>0.63300000000000001</v>
+            <v>0.70299999999999996</v>
           </cell>
           <cell r="G5">
-            <v>4.7899999999999999E-6</v>
+            <v>7.0500000000000003E-6</v>
           </cell>
         </row>
       </sheetData>
@@ -9922,46 +9922,46 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>312.44499999999999</v>
+            <v>314.53699999999998</v>
           </cell>
           <cell r="C2">
-            <v>14.731</v>
+            <v>13.734</v>
           </cell>
           <cell r="G2">
-            <v>1E-8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>315.411</v>
+            <v>317.58</v>
           </cell>
           <cell r="C3">
-            <v>14.776</v>
+            <v>13.946999999999999</v>
           </cell>
           <cell r="G3">
-            <v>1E-8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>307.24</v>
+            <v>309.33300000000003</v>
           </cell>
           <cell r="C4">
-            <v>14.334</v>
+            <v>13.318</v>
           </cell>
           <cell r="G4">
-            <v>1E-8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>275.44200000000001</v>
+            <v>292.33699999999999</v>
           </cell>
           <cell r="C5">
-            <v>21.504999999999999</v>
+            <v>12.585000000000001</v>
           </cell>
           <cell r="G5">
-            <v>8.9999999999999999E-8</v>
+            <v>1E-8</v>
           </cell>
         </row>
       </sheetData>
@@ -9980,7 +9980,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>91.525000000000006</v>
+            <v>91.59</v>
           </cell>
           <cell r="C2">
             <v>1.236</v>
@@ -9991,10 +9991,10 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>91.96</v>
+            <v>92.022999999999996</v>
           </cell>
           <cell r="C3">
-            <v>1.1060000000000001</v>
+            <v>1.107</v>
           </cell>
           <cell r="G3">
             <v>0</v>
@@ -10002,10 +10002,10 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>93.355000000000004</v>
+            <v>93.418999999999997</v>
           </cell>
           <cell r="C4">
-            <v>1.105</v>
+            <v>1.1060000000000001</v>
           </cell>
           <cell r="G4">
             <v>0</v>
@@ -10013,10 +10013,10 @@
         </row>
         <row r="5">
           <cell r="B5">
-            <v>96.27</v>
+            <v>96.537000000000006</v>
           </cell>
           <cell r="C5">
-            <v>1.415</v>
+            <v>1.4970000000000001</v>
           </cell>
           <cell r="G5">
             <v>0</v>
@@ -10096,13 +10096,13 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>0.434</v>
+            <v>0.433</v>
           </cell>
           <cell r="D2">
-            <v>0.34899999999999998</v>
+            <v>0.34799999999999998</v>
           </cell>
           <cell r="E2">
-            <v>1.2430000000000001</v>
+            <v>1.244</v>
           </cell>
           <cell r="G2">
             <v>0.99990000000000001</v>
@@ -10110,72 +10110,72 @@
         </row>
         <row r="3">
           <cell r="C3">
-            <v>1.83</v>
+            <v>1.829</v>
           </cell>
           <cell r="D3">
-            <v>0.35</v>
+            <v>0.34799999999999998</v>
           </cell>
           <cell r="E3">
-            <v>5.2350000000000003</v>
+            <v>5.2640000000000002</v>
           </cell>
           <cell r="G3">
-            <v>1.6999999999999999E-3</v>
+            <v>1.6000000000000001E-3</v>
           </cell>
         </row>
         <row r="4">
           <cell r="C4">
-            <v>4.7450000000000001</v>
+            <v>4.9470000000000001</v>
           </cell>
           <cell r="D4">
-            <v>0.622</v>
+            <v>0.69099999999999995</v>
           </cell>
           <cell r="E4">
-            <v>7.63</v>
+            <v>7.1559999999999997</v>
           </cell>
           <cell r="G4">
-            <v>8.3640000000000006E-5</v>
+            <v>1.4793E-4</v>
           </cell>
         </row>
         <row r="5">
           <cell r="C5">
-            <v>1.395</v>
+            <v>1.3959999999999999</v>
           </cell>
           <cell r="D5">
             <v>0.439</v>
           </cell>
           <cell r="E5">
-            <v>3.1760000000000002</v>
+            <v>3.18</v>
           </cell>
           <cell r="G5">
-            <v>4.99E-2</v>
+            <v>4.9399999999999999E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>4.3099999999999996</v>
+            <v>4.5149999999999997</v>
           </cell>
           <cell r="D6">
-            <v>0.81599999999999995</v>
+            <v>0.91900000000000004</v>
           </cell>
           <cell r="E6">
-            <v>5.2809999999999997</v>
+            <v>4.915</v>
           </cell>
           <cell r="G6">
-            <v>1.6999999999999999E-3</v>
+            <v>3.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>2.915</v>
+            <v>3.1179999999999999</v>
           </cell>
           <cell r="D7">
-            <v>0.75900000000000001</v>
+            <v>0.79800000000000004</v>
           </cell>
           <cell r="E7">
-            <v>3.84</v>
+            <v>3.9079999999999999</v>
           </cell>
           <cell r="G7">
-            <v>1.6E-2</v>
+            <v>1.44E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -10194,12 +10194,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.96307246623765197</v>
+            <v>0.96262627360894804</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.65638662486339305</v>
+            <v>0.65585702935512502</v>
           </cell>
         </row>
       </sheetData>
@@ -10217,13 +10217,13 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>0.88112740613241902</v>
+          <cell r="B2" t="str">
+            <v>NA</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.40595489908199001</v>
+            <v>0.78756935398470695</v>
           </cell>
         </row>
       </sheetData>
@@ -10233,20 +10233,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="G1:K5" totalsRowShown="0" headerRowDxfId="70" headerRowBorderDxfId="69" tableBorderDxfId="68" totalsRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="G1:K5" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <autoFilter ref="G1:K5" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="64">
       <calculatedColumnFormula>[2]LME_l_f0_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="63">
       <calculatedColumnFormula>[2]LME_l_f0_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE485273-FB60-4E75-AD26-3B936EE4B569}" name="L fo" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{BE485273-FB60-4E75-AD26-3B936EE4B569}" name="L fo" dataDxfId="62">
       <calculatedColumnFormula>H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p" dataDxfId="61">
       <calculatedColumnFormula>[2]LME_l_f0_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10255,20 +10255,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="G7:K11" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="G7:K11" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="G7:K11" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="55">
       <calculatedColumnFormula>[5]LME_h_f0_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="54">
       <calculatedColumnFormula>[5]LME_h_f0_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D8A465A5-9335-4374-919B-FF3C0B6C5EFF}" name="H fo" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{D8A465A5-9335-4374-919B-FF3C0B6C5EFF}" name="H fo" dataDxfId="53">
       <calculatedColumnFormula>H8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p" dataDxfId="52">
       <calculatedColumnFormula>[5]LME_h_f0_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10277,20 +10277,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="M1:Q5" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="M1:Q5" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <autoFilter ref="M1:Q5" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="46">
       <calculatedColumnFormula>[3]LME_f0_exc_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="45">
       <calculatedColumnFormula>[3]LME_f0_exc_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FE3B2199-7807-4089-8FFB-0F6FF0038C6F}" name="Excursion" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{FE3B2199-7807-4089-8FFB-0F6FF0038C6F}" name="Excursion" dataDxfId="44">
       <calculatedColumnFormula>N2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p" dataDxfId="43">
       <calculatedColumnFormula>[3]LME_f0_exc_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10299,20 +10299,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A1:E5" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <autoFilter ref="A1:E5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="37">
       <calculatedColumnFormula>[1]LME_l_t_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="43">
+    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="36">
       <calculatedColumnFormula>[1]LME_l_t_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{179EC2E2-AF67-46FA-8AC8-F2ED448301A9}" name="L time" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{179EC2E2-AF67-46FA-8AC8-F2ED448301A9}" name="L time" dataDxfId="35">
       <calculatedColumnFormula>B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p" dataDxfId="34">
       <calculatedColumnFormula>[1]LME_l_t_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10321,20 +10321,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A7:E11" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A7:E11" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="A7:E11" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="28">
       <calculatedColumnFormula>[4]LME_h_t_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="27">
       <calculatedColumnFormula>[4]LME_h_t_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{05CF79E8-B1D9-4DE1-BB9A-FD535A905687}" name="H time" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{05CF79E8-B1D9-4DE1-BB9A-FD535A905687}" name="H time" dataDxfId="26">
       <calculatedColumnFormula>B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p" dataDxfId="25">
       <calculatedColumnFormula>[4]LME_h_t_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10343,20 +10343,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="M7:Q11" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="M7:Q11" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="M7:Q11" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="19">
       <calculatedColumnFormula>[6]LME_slope_b0!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="29">
+    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="18">
       <calculatedColumnFormula>[6]LME_slope_b0!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D9BCA0B7-1765-447A-BFB6-717DA2444B71}" name="Slope" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{D9BCA0B7-1765-447A-BFB6-717DA2444B71}" name="Slope" dataDxfId="17">
       <calculatedColumnFormula>N8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p" dataDxfId="16">
       <calculatedColumnFormula>[6]LME_slope_b0!G2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10663,8 +10663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA75D8A-458C-4EF4-8CA5-966D1B6FEE89}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10754,19 +10754,19 @@
       </c>
       <c r="B2" s="67">
         <f>[1]LME_l_t_b0!B2</f>
-        <v>97.004000000000005</v>
+        <v>97.174999999999997</v>
       </c>
       <c r="C2" s="4">
         <f>[1]LME_l_t_b0!C2</f>
-        <v>5.9859999999999998</v>
+        <v>5.9939999999999998</v>
       </c>
       <c r="D2" s="62">
         <f>B2</f>
-        <v>97.004000000000005</v>
-      </c>
-      <c r="E2" s="154">
+        <v>97.174999999999997</v>
+      </c>
+      <c r="E2" s="136">
         <f>[1]LME_l_t_b0!G2</f>
-        <v>1.4000000000000001E-7</v>
+        <v>1.4999999999999999E-7</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="94" t="s">
@@ -10774,17 +10774,17 @@
       </c>
       <c r="H2" s="67">
         <f>[2]LME_l_f0_b0!B2</f>
-        <v>87.817999999999998</v>
+        <v>87.811999999999998</v>
       </c>
       <c r="I2" s="62">
         <f>[2]LME_l_f0_b0!C2</f>
-        <v>1.1100000000000001</v>
+        <v>1.109</v>
       </c>
       <c r="J2" s="112">
         <f>H2</f>
-        <v>87.817999999999998</v>
-      </c>
-      <c r="K2" s="154">
+        <v>87.811999999999998</v>
+      </c>
+      <c r="K2" s="136">
         <f>[2]LME_l_f0_b0!G2</f>
         <v>0</v>
       </c>
@@ -10793,19 +10793,19 @@
       </c>
       <c r="N2" s="67">
         <f>[3]LME_f0_exc_b0!B2</f>
-        <v>5.1790000000000003</v>
+        <v>5.1239999999999997</v>
       </c>
       <c r="O2" s="62">
         <f>[3]LME_f0_exc_b0!C2</f>
-        <v>0.52700000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="P2" s="112">
         <f>N2</f>
-        <v>5.1790000000000003</v>
-      </c>
-      <c r="Q2" s="154">
+        <v>5.1239999999999997</v>
+      </c>
+      <c r="Q2" s="136">
         <f>[3]LME_f0_exc_b0!G2</f>
-        <v>8.1899999999999995E-6</v>
+        <v>5.22E-6</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -10817,19 +10817,19 @@
       </c>
       <c r="B3" s="67">
         <f>[1]LME_l_t_b0!B3</f>
-        <v>97.638000000000005</v>
+        <v>97.765000000000001</v>
       </c>
       <c r="C3" s="4">
         <f>[1]LME_l_t_b0!C3</f>
-        <v>6.1849999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="D3" s="62">
         <f t="shared" ref="D3:D5" si="0">B3</f>
-        <v>97.638000000000005</v>
-      </c>
-      <c r="E3" s="154">
+        <v>97.765000000000001</v>
+      </c>
+      <c r="E3" s="136">
         <f>[1]LME_l_t_b0!G3</f>
-        <v>1.4999999999999999E-7</v>
+        <v>1.9000000000000001E-7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="94" t="s">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="H3" s="67">
         <f>[2]LME_l_f0_b0!B3</f>
-        <v>87.902000000000001</v>
+        <v>87.896000000000001</v>
       </c>
       <c r="I3" s="62">
         <f>[2]LME_l_f0_b0!C3</f>
@@ -10845,9 +10845,9 @@
       </c>
       <c r="J3" s="112">
         <f t="shared" ref="J3:J5" si="1">H3</f>
-        <v>87.902000000000001</v>
-      </c>
-      <c r="K3" s="154">
+        <v>87.896000000000001</v>
+      </c>
+      <c r="K3" s="136">
         <f>[2]LME_l_f0_b0!G3</f>
         <v>0</v>
       </c>
@@ -10856,19 +10856,19 @@
       </c>
       <c r="N3" s="67">
         <f>[3]LME_f0_exc_b0!B3</f>
-        <v>5.5439999999999996</v>
+        <v>5.4870000000000001</v>
       </c>
       <c r="O3" s="62">
         <f>[3]LME_f0_exc_b0!C3</f>
-        <v>0.48299999999999998</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="P3" s="112">
         <f t="shared" ref="P3:P5" si="2">N3</f>
-        <v>5.5439999999999996</v>
-      </c>
-      <c r="Q3" s="154">
+        <v>5.4870000000000001</v>
+      </c>
+      <c r="Q3" s="136">
         <f>[3]LME_f0_exc_b0!G3</f>
-        <v>3.1300000000000001E-6</v>
+        <v>1.1799999999999999E-6</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -10880,19 +10880,19 @@
       </c>
       <c r="B4" s="67">
         <f>[1]LME_l_t_b0!B4</f>
-        <v>94.364999999999995</v>
+        <v>94.54</v>
       </c>
       <c r="C4" s="4">
         <f>[1]LME_l_t_b0!C4</f>
-        <v>6.46</v>
+        <v>6.4409999999999998</v>
       </c>
       <c r="D4" s="62">
         <f t="shared" si="0"/>
-        <v>94.364999999999995</v>
-      </c>
-      <c r="E4" s="154">
+        <v>94.54</v>
+      </c>
+      <c r="E4" s="136">
         <f>[1]LME_l_t_b0!G4</f>
-        <v>2.1E-7</v>
+        <v>2.2000000000000001E-7</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="94" t="s">
@@ -10900,17 +10900,17 @@
       </c>
       <c r="H4" s="67">
         <f>[2]LME_l_f0_b0!B4</f>
-        <v>89.566000000000003</v>
+        <v>89.56</v>
       </c>
       <c r="I4" s="62">
         <f>[2]LME_l_f0_b0!C4</f>
-        <v>1.234</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="J4" s="112">
         <f t="shared" si="1"/>
-        <v>89.566000000000003</v>
-      </c>
-      <c r="K4" s="154">
+        <v>89.56</v>
+      </c>
+      <c r="K4" s="136">
         <f>[2]LME_l_f0_b0!G4</f>
         <v>0</v>
       </c>
@@ -10919,19 +10919,19 @@
       </c>
       <c r="N4" s="67">
         <f>[3]LME_f0_exc_b0!B4</f>
-        <v>5.2640000000000002</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="O4" s="62">
         <f>[3]LME_f0_exc_b0!C4</f>
-        <v>0.58199999999999996</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="P4" s="112">
         <f t="shared" si="2"/>
-        <v>5.2640000000000002</v>
-      </c>
-      <c r="Q4" s="154">
+        <v>5.2080000000000002</v>
+      </c>
+      <c r="Q4" s="136">
         <f>[3]LME_f0_exc_b0!G4</f>
-        <v>4.7750000000000002E-5</v>
+        <v>3.4039999999999999E-5</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -10943,19 +10943,19 @@
       </c>
       <c r="B5" s="101">
         <f>[1]LME_l_t_b0!B5</f>
-        <v>70.567999999999998</v>
+        <v>75.019000000000005</v>
       </c>
       <c r="C5" s="106">
         <f>[1]LME_l_t_b0!C5</f>
-        <v>9.718</v>
+        <v>7.351</v>
       </c>
       <c r="D5" s="102">
         <f t="shared" si="0"/>
-        <v>70.567999999999998</v>
-      </c>
-      <c r="E5" s="155">
+        <v>75.019000000000005</v>
+      </c>
+      <c r="E5" s="137">
         <f>[1]LME_l_t_b0!G5</f>
-        <v>7.5439999999999996E-5</v>
+        <v>4.4100000000000001E-6</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="100" t="s">
@@ -10973,7 +10973,7 @@
         <f t="shared" si="1"/>
         <v>90.822999999999993</v>
       </c>
-      <c r="K5" s="155">
+      <c r="K5" s="137">
         <f>[2]LME_l_f0_b0!G5</f>
         <v>0</v>
       </c>
@@ -10982,19 +10982,19 @@
       </c>
       <c r="N5" s="101">
         <f>[3]LME_f0_exc_b0!B5</f>
-        <v>6.9429999999999996</v>
+        <v>7.077</v>
       </c>
       <c r="O5" s="102">
         <f>[3]LME_f0_exc_b0!C5</f>
-        <v>0.63300000000000001</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="P5" s="113">
         <f t="shared" si="2"/>
-        <v>6.9429999999999996</v>
-      </c>
-      <c r="Q5" s="155">
+        <v>7.077</v>
+      </c>
+      <c r="Q5" s="137">
         <f>[3]LME_f0_exc_b0!G5</f>
-        <v>4.7899999999999999E-6</v>
+        <v>7.0500000000000003E-6</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -11079,19 +11079,19 @@
       </c>
       <c r="B8" s="67">
         <f>[4]LME_h_t_b0!B2</f>
-        <v>312.44499999999999</v>
+        <v>314.53699999999998</v>
       </c>
       <c r="C8" s="62">
         <f>[4]LME_h_t_b0!C2</f>
-        <v>14.731</v>
+        <v>13.734</v>
       </c>
       <c r="D8" s="62">
         <f>B8</f>
-        <v>312.44499999999999</v>
-      </c>
-      <c r="E8" s="154">
+        <v>314.53699999999998</v>
+      </c>
+      <c r="E8" s="136">
         <f>[4]LME_h_t_b0!G2</f>
-        <v>1E-8</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="94" t="s">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="H8" s="67">
         <f>[5]LME_h_f0_b0!B2</f>
-        <v>91.525000000000006</v>
+        <v>91.59</v>
       </c>
       <c r="I8" s="62">
         <f>[5]LME_h_f0_b0!C2</f>
@@ -11107,9 +11107,9 @@
       </c>
       <c r="J8" s="112">
         <f>H8</f>
-        <v>91.525000000000006</v>
-      </c>
-      <c r="K8" s="154">
+        <v>91.59</v>
+      </c>
+      <c r="K8" s="136">
         <f>[5]LME_h_f0_b0!G2</f>
         <v>0</v>
       </c>
@@ -11128,7 +11128,7 @@
         <f>N8</f>
         <v>31.908000000000001</v>
       </c>
-      <c r="Q8" s="154">
+      <c r="Q8" s="136">
         <f>[6]LME_slope_b0!G2</f>
         <v>4.9400000000000001E-6</v>
       </c>
@@ -11145,19 +11145,19 @@
       </c>
       <c r="B9" s="67">
         <f>[4]LME_h_t_b0!B3</f>
-        <v>315.411</v>
+        <v>317.58</v>
       </c>
       <c r="C9" s="62">
         <f>[4]LME_h_t_b0!C3</f>
-        <v>14.776</v>
+        <v>13.946999999999999</v>
       </c>
       <c r="D9" s="62">
         <f t="shared" ref="D9:D11" si="3">B9</f>
-        <v>315.411</v>
-      </c>
-      <c r="E9" s="154">
+        <v>317.58</v>
+      </c>
+      <c r="E9" s="136">
         <f>[4]LME_h_t_b0!G3</f>
-        <v>1E-8</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="94" t="s">
@@ -11165,17 +11165,17 @@
       </c>
       <c r="H9" s="67">
         <f>[5]LME_h_f0_b0!B3</f>
-        <v>91.96</v>
+        <v>92.022999999999996</v>
       </c>
       <c r="I9" s="62">
         <f>[5]LME_h_f0_b0!C3</f>
-        <v>1.1060000000000001</v>
+        <v>1.107</v>
       </c>
       <c r="J9" s="112">
         <f t="shared" ref="J9:J11" si="4">H9</f>
-        <v>91.96</v>
-      </c>
-      <c r="K9" s="154">
+        <v>92.022999999999996</v>
+      </c>
+      <c r="K9" s="136">
         <f>[5]LME_h_f0_b0!G3</f>
         <v>0</v>
       </c>
@@ -11194,7 +11194,7 @@
         <f t="shared" ref="P9:P11" si="5">N9</f>
         <v>34.118000000000002</v>
       </c>
-      <c r="Q9" s="154">
+      <c r="Q9" s="136">
         <f>[6]LME_slope_b0!G3</f>
         <v>8.85E-6</v>
       </c>
@@ -11205,19 +11205,19 @@
       </c>
       <c r="B10" s="67">
         <f>[4]LME_h_t_b0!B4</f>
-        <v>307.24</v>
+        <v>309.33300000000003</v>
       </c>
       <c r="C10" s="62">
         <f>[4]LME_h_t_b0!C4</f>
-        <v>14.334</v>
+        <v>13.318</v>
       </c>
       <c r="D10" s="62">
         <f t="shared" si="3"/>
-        <v>307.24</v>
-      </c>
-      <c r="E10" s="154">
+        <v>309.33300000000003</v>
+      </c>
+      <c r="E10" s="136">
         <f>[4]LME_h_t_b0!G4</f>
-        <v>1E-8</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="94" t="s">
@@ -11225,17 +11225,17 @@
       </c>
       <c r="H10" s="67">
         <f>[5]LME_h_f0_b0!B4</f>
-        <v>93.355000000000004</v>
+        <v>93.418999999999997</v>
       </c>
       <c r="I10" s="62">
         <f>[5]LME_h_f0_b0!C4</f>
-        <v>1.105</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="J10" s="112">
         <f t="shared" si="4"/>
-        <v>93.355000000000004</v>
-      </c>
-      <c r="K10" s="154">
+        <v>93.418999999999997</v>
+      </c>
+      <c r="K10" s="136">
         <f>[5]LME_h_f0_b0!G4</f>
         <v>0</v>
       </c>
@@ -11254,7 +11254,7 @@
         <f t="shared" si="5"/>
         <v>33.381999999999998</v>
       </c>
-      <c r="Q10" s="154">
+      <c r="Q10" s="136">
         <f>[6]LME_slope_b0!G4</f>
         <v>6.1299999999999998E-6</v>
       </c>
@@ -11265,19 +11265,19 @@
       </c>
       <c r="B11" s="101">
         <f>[4]LME_h_t_b0!B5</f>
-        <v>275.44200000000001</v>
+        <v>292.33699999999999</v>
       </c>
       <c r="C11" s="102">
         <f>[4]LME_h_t_b0!C5</f>
-        <v>21.504999999999999</v>
+        <v>12.585000000000001</v>
       </c>
       <c r="D11" s="102">
         <f t="shared" si="3"/>
-        <v>275.44200000000001</v>
-      </c>
-      <c r="E11" s="155">
+        <v>292.33699999999999</v>
+      </c>
+      <c r="E11" s="137">
         <f>[4]LME_h_t_b0!G5</f>
-        <v>8.9999999999999999E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="100" t="s">
@@ -11285,17 +11285,17 @@
       </c>
       <c r="H11" s="101">
         <f>[5]LME_h_f0_b0!B5</f>
-        <v>96.27</v>
+        <v>96.537000000000006</v>
       </c>
       <c r="I11" s="102">
         <f>[5]LME_h_f0_b0!C5</f>
-        <v>1.415</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="J11" s="113">
         <f t="shared" si="4"/>
-        <v>96.27</v>
-      </c>
-      <c r="K11" s="155">
+        <v>96.537000000000006</v>
+      </c>
+      <c r="K11" s="137">
         <f>[5]LME_h_f0_b0!G5</f>
         <v>0</v>
       </c>
@@ -11314,7 +11314,7 @@
         <f t="shared" si="5"/>
         <v>41.012999999999998</v>
       </c>
-      <c r="Q11" s="155">
+      <c r="Q11" s="137">
         <f>[6]LME_slope_b0!G5</f>
         <v>5.2E-7</v>
       </c>
@@ -11601,7 +11601,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="E2:E5 E8:E11 K2:K5 K8:K11 Q2:Q5 Q8:Q11">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11626,7 +11626,7 @@
   </sheetPr>
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -11653,42 +11653,42 @@
       <c r="A1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="142" t="s">
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="136" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="137"/>
+      <c r="AE1" s="139"/>
     </row>
     <row r="2" spans="1:31" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
@@ -11706,46 +11706,46 @@
       <c r="E2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="138" t="s">
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="138" t="s">
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="138" t="s">
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="138" t="s">
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="138" t="s">
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="138" t="s">
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="140"/>
+      <c r="AE2" s="142"/>
     </row>
     <row r="3" spans="1:31" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
@@ -11848,15 +11848,15 @@
       </c>
       <c r="B4" s="49">
         <f>'model tab'!J2</f>
-        <v>87.817999999999998</v>
+        <v>87.811999999999998</v>
       </c>
       <c r="C4" s="50">
         <f>'model tab'!J3</f>
-        <v>87.902000000000001</v>
+        <v>87.896000000000001</v>
       </c>
       <c r="D4" s="50">
         <f>'model tab'!J4</f>
-        <v>89.566000000000003</v>
+        <v>89.56</v>
       </c>
       <c r="E4" s="51">
         <f>'model tab'!J5</f>
@@ -11864,15 +11864,15 @@
       </c>
       <c r="F4" s="53">
         <f>[7]LME_h_f0_b1!$C$2</f>
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="G4" s="54">
         <f>[7]LME_h_f0_b1!$D$2</f>
-        <v>0.34899999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="H4" s="54">
         <f>[7]LME_h_f0_b1!$E$2</f>
-        <v>1.2430000000000001</v>
+        <v>1.244</v>
       </c>
       <c r="I4" s="56">
         <f>[7]LME_h_f0_b1!$G$2</f>
@@ -11880,39 +11880,39 @@
       </c>
       <c r="J4" s="53">
         <f>[7]LME_h_f0_b1!$C$3</f>
-        <v>1.83</v>
+        <v>1.829</v>
       </c>
       <c r="K4" s="54">
         <f>[7]LME_h_f0_b1!$D$3</f>
-        <v>0.35</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="L4" s="54">
         <f>[7]LME_h_f0_b1!$E$3</f>
-        <v>5.2350000000000003</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="M4" s="70">
         <f>[7]LME_h_f0_b1!$G$3</f>
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="N4" s="53">
         <f>[7]LME_h_f0_b1!$C$4</f>
-        <v>4.7450000000000001</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="O4" s="54">
         <f>[7]LME_h_f0_b1!$D$4</f>
-        <v>0.622</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="P4" s="54">
         <f>[7]LME_h_f0_b1!$E$4</f>
-        <v>7.63</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="Q4" s="70">
         <f>[7]LME_h_f0_b1!$G$4</f>
-        <v>8.3640000000000006E-5</v>
+        <v>1.4793E-4</v>
       </c>
       <c r="R4" s="53">
         <f>[7]LME_h_f0_b1!C5</f>
-        <v>1.395</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="S4" s="54">
         <f>[7]LME_h_f0_b1!D5</f>
@@ -11920,51 +11920,51 @@
       </c>
       <c r="T4" s="54">
         <f>[7]LME_h_f0_b1!E5</f>
-        <v>3.1760000000000002</v>
+        <v>3.18</v>
       </c>
       <c r="U4" s="70">
         <f>[7]LME_h_f0_b1!$G$4</f>
-        <v>8.3640000000000006E-5</v>
+        <v>1.4793E-4</v>
       </c>
       <c r="V4" s="53">
         <f>[7]LME_h_f0_b1!$C$6</f>
-        <v>4.3099999999999996</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="W4" s="54">
         <f>[7]LME_h_f0_b1!$D$6</f>
-        <v>0.81599999999999995</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="X4" s="54">
         <f>[7]LME_h_f0_b1!$E$6</f>
-        <v>5.2809999999999997</v>
+        <v>4.915</v>
       </c>
       <c r="Y4" s="70">
         <f>[7]LME_h_f0_b1!$G$6</f>
-        <v>1.6999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Z4" s="53">
         <f>[7]LME_h_f0_b1!$C$7</f>
-        <v>2.915</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="AA4" s="54">
         <f>[7]LME_h_f0_b1!$D$7</f>
-        <v>0.75900000000000001</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AB4" s="54">
         <f>[7]LME_h_f0_b1!$E$7</f>
-        <v>3.84</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="AC4" s="70">
         <f>[7]LME_h_f0_b1!$G$7</f>
-        <v>1.6E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="AD4" s="53">
         <f>[8]LME_l_f0_r2!$B$3</f>
-        <v>0.65638662486339305</v>
+        <v>0.65585702935512502</v>
       </c>
       <c r="AE4" s="55">
         <f>[8]LME_l_f0_r2!$B$2</f>
-        <v>0.96307246623765197</v>
+        <v>0.96262627360894804</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -11973,31 +11973,31 @@
       </c>
       <c r="B5" s="19">
         <f>'model tab'!J8</f>
-        <v>91.525000000000006</v>
+        <v>91.59</v>
       </c>
       <c r="C5" s="14">
         <f>'model tab'!J9</f>
-        <v>91.96</v>
+        <v>92.022999999999996</v>
       </c>
       <c r="D5" s="14">
         <f>'model tab'!J10</f>
-        <v>93.355000000000004</v>
+        <v>93.418999999999997</v>
       </c>
       <c r="E5" s="27">
         <f>'model tab'!J11</f>
-        <v>96.27</v>
+        <v>96.537000000000006</v>
       </c>
       <c r="F5" s="29">
         <f>[7]LME_h_f0_b1!$C$2</f>
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="G5" s="17">
         <f>[7]LME_h_f0_b1!$D$2</f>
-        <v>0.34899999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="H5" s="17">
         <f>[7]LME_h_f0_b1!$E$2</f>
-        <v>1.2430000000000001</v>
+        <v>1.244</v>
       </c>
       <c r="I5" s="20">
         <f>[7]LME_h_f0_b1!$G$2</f>
@@ -12005,39 +12005,39 @@
       </c>
       <c r="J5" s="29">
         <f>[7]LME_h_f0_b1!$C$3</f>
-        <v>1.83</v>
+        <v>1.829</v>
       </c>
       <c r="K5" s="17">
         <f>[7]LME_h_f0_b1!$D$3</f>
-        <v>0.35</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="L5" s="17">
         <f>[7]LME_h_f0_b1!$E$3</f>
-        <v>5.2350000000000003</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="M5" s="71">
         <f>[7]LME_h_f0_b1!$G$3</f>
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="N5" s="29">
         <f>[7]LME_h_f0_b1!$C$4</f>
-        <v>4.7450000000000001</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="O5" s="17">
         <f>[7]LME_h_f0_b1!$D$4</f>
-        <v>0.622</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="P5" s="17">
         <f>[7]LME_h_f0_b1!$E$4</f>
-        <v>7.63</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="Q5" s="71">
         <f>[7]LME_h_f0_b1!$G$4</f>
-        <v>8.3640000000000006E-5</v>
+        <v>1.4793E-4</v>
       </c>
       <c r="R5" s="29">
         <f>[7]LME_h_f0_b1!$C$5</f>
-        <v>1.395</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="S5" s="17">
         <f>[7]LME_h_f0_b1!$D$5</f>
@@ -12045,51 +12045,51 @@
       </c>
       <c r="T5" s="17">
         <f>[7]LME_h_f0_b1!$E$5</f>
-        <v>3.1760000000000002</v>
+        <v>3.18</v>
       </c>
       <c r="U5" s="71">
         <f>[7]LME_h_f0_b1!$G$5</f>
-        <v>4.99E-2</v>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="V5" s="29">
         <f>[7]LME_h_f0_b1!$C$6</f>
-        <v>4.3099999999999996</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="W5" s="17">
         <f>[7]LME_h_f0_b1!$D$6</f>
-        <v>0.81599999999999995</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="X5" s="17">
         <f>[7]LME_h_f0_b1!$E$6</f>
-        <v>5.2809999999999997</v>
+        <v>4.915</v>
       </c>
       <c r="Y5" s="71">
         <f>[7]LME_h_f0_b1!$G$6</f>
-        <v>1.6999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Z5" s="29">
         <f>[7]LME_h_f0_b1!$C$7</f>
-        <v>2.915</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="AA5" s="17">
         <f>[7]LME_h_f0_b1!$D$7</f>
-        <v>0.75900000000000001</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AB5" s="17">
         <f>[7]LME_h_f0_b1!$E$7</f>
-        <v>3.84</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="AC5" s="71">
         <f>[7]LME_h_f0_b1!$G$7</f>
-        <v>1.6E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="AD5" s="29">
         <f>[9]LME_h_f0_r2!$B$3</f>
-        <v>0.40595489908199001</v>
-      </c>
-      <c r="AE5" s="30">
+        <v>0.78756935398470695</v>
+      </c>
+      <c r="AE5" s="30" t="str">
         <f>[9]LME_h_f0_r2!$B$2</f>
-        <v>0.88112740613241902</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12098,23 +12098,23 @@
       </c>
       <c r="B6" s="19">
         <f>'model tab'!P2</f>
-        <v>5.1790000000000003</v>
+        <v>5.1239999999999997</v>
       </c>
       <c r="C6" s="14">
         <f>'model tab'!P3</f>
-        <v>5.5439999999999996</v>
+        <v>5.4870000000000001</v>
       </c>
       <c r="D6" s="14">
         <f>'model tab'!P4</f>
-        <v>5.2640000000000002</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="E6" s="27">
         <f>'model tab'!P5</f>
-        <v>6.9429999999999996</v>
+        <v>7.077</v>
       </c>
       <c r="F6" s="29">
         <f>[10]LME_f0_exc_b1!$C$2</f>
-        <v>0.36499999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G6" s="17">
         <f>[10]LME_f0_exc_b1!$D$2</f>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="H6" s="17">
         <f>[10]LME_f0_exc_b1!$E$2</f>
-        <v>1.1359999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I6" s="20">
         <f>[10]LME_f0_exc_b1!$G$2</f>
@@ -12130,15 +12130,15 @@
       </c>
       <c r="J6" s="29">
         <f>[10]LME_f0_exc_b1!$C$3</f>
-        <v>8.5999999999999993E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="K6" s="17">
         <f>[10]LME_f0_exc_b1!$D$3</f>
-        <v>0.33400000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="L6" s="17">
         <f>[10]LME_f0_exc_b1!$E$3</f>
-        <v>0.25600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="M6" s="71">
         <f>[10]LME_f0_exc_b1!$G$3</f>
@@ -12146,31 +12146,31 @@
       </c>
       <c r="N6" s="29">
         <f>[10]LME_f0_exc_b1!$C$4</f>
-        <v>1.764</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="O6" s="17">
         <f>[10]LME_f0_exc_b1!$D$4</f>
-        <v>0.42</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="P6" s="17">
         <f>[10]LME_f0_exc_b1!$E$4</f>
-        <v>4.2030000000000003</v>
+        <v>4.2549999999999999</v>
       </c>
       <c r="Q6" s="71">
         <f>[10]LME_f0_exc_b1!$G$4</f>
-        <v>1.24E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="R6" s="29">
         <f>[10]LME_f0_exc_b1!$C$5</f>
-        <v>-0.28000000000000003</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="S6" s="17">
         <f>[10]LME_f0_exc_b1!$D$5</f>
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="T6" s="17">
         <f>[10]LME_f0_exc_b1!$E$5</f>
-        <v>-0.64600000000000002</v>
+        <v>-0.64200000000000002</v>
       </c>
       <c r="U6" s="71">
         <f>[10]LME_f0_exc_b1!$G$5</f>
@@ -12178,43 +12178,43 @@
       </c>
       <c r="V6" s="29">
         <f>[10]LME_f0_exc_b1!$C$6</f>
-        <v>1.399</v>
+        <v>1.59</v>
       </c>
       <c r="W6" s="17">
         <f>[10]LME_f0_exc_b1!$D$6</f>
-        <v>0.41699999999999998</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="X6" s="17">
         <f>[10]LME_f0_exc_b1!$E$6</f>
-        <v>3.3570000000000002</v>
+        <v>3.0990000000000002</v>
       </c>
       <c r="Y6" s="71">
         <f>[10]LME_f0_exc_b1!$G$6</f>
-        <v>4.0599999999999997E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="Z6" s="29">
         <f>[10]LME_f0_exc_b1!$C$7</f>
-        <v>1.6779999999999999</v>
+        <v>1.869</v>
       </c>
       <c r="AA6" s="17">
         <f>[10]LME_f0_exc_b1!$D$7</f>
-        <v>0.33500000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AB6" s="17">
         <f>[10]LME_f0_exc_b1!$E$7</f>
-        <v>5.0060000000000002</v>
+        <v>6.7990000000000004</v>
       </c>
       <c r="AC6" s="71">
         <f>[10]LME_f0_exc_b1!$G$7</f>
-        <v>2.7000000000000001E-3</v>
+        <v>2.8774999999999997E-4</v>
       </c>
       <c r="AD6" s="29">
         <f>[11]LME_f0_exc_r2!$B$3</f>
-        <v>0.18725760823075199</v>
+        <v>0.22171888117195901</v>
       </c>
       <c r="AE6" s="30">
         <f>[11]LME_f0_exc_r2!$B$2</f>
-        <v>0.56045733646622098</v>
+        <v>0.65060167396938096</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12318,31 +12318,31 @@
       </c>
       <c r="B8" s="39">
         <f>'model tab'!D2</f>
-        <v>97.004000000000005</v>
+        <v>97.174999999999997</v>
       </c>
       <c r="C8" s="40">
         <f>'model tab'!D3</f>
-        <v>97.638000000000005</v>
+        <v>97.765000000000001</v>
       </c>
       <c r="D8" s="40">
         <f>'model tab'!D4</f>
-        <v>94.364999999999995</v>
+        <v>94.54</v>
       </c>
       <c r="E8" s="41">
         <f>'model tab'!D5</f>
-        <v>70.567999999999998</v>
+        <v>75.019000000000005</v>
       </c>
       <c r="F8" s="39">
         <f>[12]LME_l_t_b1!$C$2</f>
-        <v>0.63400000000000001</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="G8" s="57">
         <f>[12]LME_l_t_b1!$D$2</f>
-        <v>3.262</v>
+        <v>3.25</v>
       </c>
       <c r="H8" s="57">
         <f>[12]LME_l_t_b1!$E$2</f>
-        <v>0.19400000000000001</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="I8" s="45">
         <f>[12]LME_l_t_b1!$G$2</f>
@@ -12350,11 +12350,11 @@
       </c>
       <c r="J8" s="39">
         <f>[12]LME_l_t_b1!$C$3</f>
-        <v>-2.64</v>
+        <v>-2.6360000000000001</v>
       </c>
       <c r="K8" s="43">
         <f>[12]LME_l_t_b1!$D$3</f>
-        <v>5.0679999999999996</v>
+        <v>5.0640000000000001</v>
       </c>
       <c r="L8" s="43">
         <f>[12]LME_l_t_b1!$E$3</f>
@@ -12366,31 +12366,31 @@
       </c>
       <c r="N8" s="39">
         <f>[12]LME_l_t_b1!$C$4</f>
-        <v>-26.436</v>
+        <v>-22.155999999999999</v>
       </c>
       <c r="O8" s="43">
         <f>[12]LME_l_t_b1!$D$4</f>
-        <v>7.9219999999999997</v>
+        <v>5.3460000000000001</v>
       </c>
       <c r="P8" s="43">
         <f>[12]LME_l_t_b1!$E$4</f>
-        <v>-3.3370000000000002</v>
+        <v>-4.1440000000000001</v>
       </c>
       <c r="Q8" s="72">
         <f>[12]LME_l_t_b1!$G$4</f>
-        <v>3.7600000000000001E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="R8" s="39">
         <f>[12]LME_l_t_b1!$C$5</f>
-        <v>-3.274</v>
+        <v>-3.2250000000000001</v>
       </c>
       <c r="S8" s="43">
         <f>[12]LME_l_t_b1!$D$5</f>
-        <v>4.1040000000000001</v>
+        <v>4.0860000000000003</v>
       </c>
       <c r="T8" s="43">
         <f>[12]LME_l_t_b1!$E$5</f>
-        <v>-0.79800000000000004</v>
+        <v>-0.78900000000000003</v>
       </c>
       <c r="U8" s="72">
         <f>[12]LME_l_t_b1!$G$5</f>
@@ -12398,43 +12398,43 @@
       </c>
       <c r="V8" s="39">
         <f>[12]LME_l_t_b1!$C$6</f>
-        <v>-27.07</v>
+        <v>-22.745000000000001</v>
       </c>
       <c r="W8" s="43">
         <f>[12]LME_l_t_b1!$D$6</f>
-        <v>7.6630000000000003</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="X8" s="43">
         <f>[12]LME_l_t_b1!$E$6</f>
-        <v>-3.5329999999999999</v>
+        <v>-5.3079999999999998</v>
       </c>
       <c r="Y8" s="72">
         <f>[12]LME_l_t_b1!$G$6</f>
-        <v>2.7099999999999999E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="Z8" s="39">
         <f>[12]LME_l_t_b1!$C$7</f>
-        <v>-23.795999999999999</v>
+        <v>-19.52</v>
       </c>
       <c r="AA8" s="43">
         <f>[12]LME_l_t_b1!$D$7</f>
-        <v>9.0410000000000004</v>
+        <v>5.3170000000000002</v>
       </c>
       <c r="AB8" s="43">
         <f>[12]LME_l_t_b1!$E$7</f>
-        <v>-2.6320000000000001</v>
+        <v>-3.6709999999999998</v>
       </c>
       <c r="AC8" s="72">
         <f>[12]LME_l_t_b1!$G$7</f>
-        <v>0.12520000000000001</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="AD8" s="42">
         <f>[13]LME_l_t_r2!$B$3</f>
-        <v>0.50228895795003903</v>
+        <v>0.60883047720371697</v>
       </c>
       <c r="AE8" s="44">
         <f>[13]LME_l_t_r2!$B$2</f>
-        <v>0.70920915396352202</v>
+        <v>0.804796533837705</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12443,31 +12443,31 @@
       </c>
       <c r="B9" s="21">
         <f>'model tab'!D8</f>
-        <v>312.44499999999999</v>
+        <v>314.53699999999998</v>
       </c>
       <c r="C9" s="15">
         <f>'model tab'!D9</f>
-        <v>315.411</v>
+        <v>317.58</v>
       </c>
       <c r="D9" s="15">
         <f>'model tab'!D10</f>
-        <v>307.24</v>
+        <v>309.33300000000003</v>
       </c>
       <c r="E9" s="28">
         <f>'model tab'!D11</f>
-        <v>275.44200000000001</v>
+        <v>292.33699999999999</v>
       </c>
       <c r="F9" s="21">
         <f>[14]LME_h_t_b1!$C$2</f>
-        <v>2.94</v>
+        <v>3.0430000000000001</v>
       </c>
       <c r="G9" s="14">
         <f>[14]LME_h_t_b1!$D$2</f>
-        <v>7.04</v>
+        <v>5.1609999999999996</v>
       </c>
       <c r="H9" s="14">
         <f>[14]LME_h_t_b1!$E$2</f>
-        <v>0.41799999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="I9" s="20">
         <f>[14]LME_h_t_b1!$G$2</f>
@@ -12475,15 +12475,15 @@
       </c>
       <c r="J9" s="21">
         <f>[14]LME_h_t_b1!$C$3</f>
-        <v>-5.2039999999999997</v>
+        <v>-5.2030000000000003</v>
       </c>
       <c r="K9" s="17">
         <f>[14]LME_h_t_b1!$D$3</f>
-        <v>7.2039999999999997</v>
+        <v>5.0330000000000004</v>
       </c>
       <c r="L9" s="17">
         <f>[14]LME_h_t_b1!$E$3</f>
-        <v>-0.72199999999999998</v>
+        <v>-1.034</v>
       </c>
       <c r="M9" s="71">
         <f>[14]LME_h_t_b1!$G$3</f>
@@ -12491,75 +12491,75 @@
       </c>
       <c r="N9" s="21">
         <f>[14]LME_h_t_b1!$C$4</f>
-        <v>-37.003</v>
+        <v>-22.199000000000002</v>
       </c>
       <c r="O9" s="17">
         <f>[14]LME_h_t_b1!$D$4</f>
-        <v>15.519</v>
+        <v>7.1539999999999999</v>
       </c>
       <c r="P9" s="17">
         <f>[14]LME_h_t_b1!$E$4</f>
-        <v>-2.3839999999999999</v>
+        <v>-3.1030000000000002</v>
       </c>
       <c r="Q9" s="71">
         <f>[14]LME_h_t_b1!$G$4</f>
-        <v>0.18729999999999999</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="R9" s="21">
         <f>[14]LME_h_t_b1!$C$5</f>
-        <v>-8.1560000000000006</v>
+        <v>-8.2449999999999992</v>
       </c>
       <c r="S9" s="17">
         <f>[14]LME_h_t_b1!$D$5</f>
-        <v>6.8659999999999997</v>
+        <v>5.3979999999999997</v>
       </c>
       <c r="T9" s="17">
         <f>[14]LME_h_t_b1!$E$5</f>
-        <v>-1.1879999999999999</v>
+        <v>-1.528</v>
       </c>
       <c r="U9" s="71">
         <f>[14]LME_h_t_b1!$G$5</f>
-        <v>0.99990000000000001</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="V9" s="21">
         <f>[14]LME_h_t_b1!$C$6</f>
-        <v>-39.918999999999997</v>
+        <v>-25.242000000000001</v>
       </c>
       <c r="W9" s="17">
         <f>[14]LME_h_t_b1!$D$6</f>
-        <v>17.343</v>
+        <v>7.359</v>
       </c>
       <c r="X9" s="17">
         <f>[14]LME_h_t_b1!$E$6</f>
-        <v>-2.302</v>
+        <v>-3.43</v>
       </c>
       <c r="Y9" s="71">
         <f>[14]LME_h_t_b1!$G$6</f>
-        <v>0.2107</v>
+        <v>3.27E-2</v>
       </c>
       <c r="Z9" s="21">
         <f>[14]LME_h_t_b1!$C$7</f>
-        <v>-31.798999999999999</v>
+        <v>-16.997</v>
       </c>
       <c r="AA9" s="17">
         <f>[14]LME_h_t_b1!$D$7</f>
-        <v>17.62</v>
+        <v>6.6849999999999996</v>
       </c>
       <c r="AB9" s="17">
         <f>[14]LME_h_t_b1!$E$7</f>
-        <v>-1.8049999999999999</v>
+        <v>-2.5430000000000001</v>
       </c>
       <c r="AC9" s="71">
         <f>[14]LME_h_t_b1!$G$7</f>
-        <v>0.50439999999999996</v>
+        <v>0.13739999999999999</v>
       </c>
       <c r="AD9" s="29">
         <f>[15]LME_h_t_r2!$B$3</f>
-        <v>0.170648229551289</v>
+        <v>0.27182797663312502</v>
       </c>
       <c r="AE9" s="30">
         <f>[15]LME_h_t_r2!$B$2</f>
-        <v>0.43477936449820098</v>
+        <v>0.52587707090467395</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12783,35 +12783,35 @@
     <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I6 M3:M6 Q3:Q6 U3:U6 Y3:Y6 AC3:AC6 AC11 Y11 U11 Q11 M11 I11 AC8:AC9 Y8:Y9 U8:U9 Q8:Q9 M8:M9 I8:I9">
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7 M7 Q7 U7 Y7 AC7">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 M10 Q10 U10 Y10 AC10">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12858,48 +12858,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148" t="s">
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="149" t="s">
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="150"/>
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="150"/>
+      <c r="AD1" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="150"/>
+      <c r="AE1" s="152"/>
     </row>
     <row r="2" spans="1:31" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="144"/>
+      <c r="A2" s="146"/>
       <c r="B2" s="124" t="s">
         <v>22</v>
       </c>
@@ -12912,46 +12912,46 @@
       <c r="E2" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152" t="s">
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152" t="s">
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152" t="s">
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152" t="s">
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152" t="s">
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="153"/>
-      <c r="AD2" s="151" t="s">
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="153"/>
+      <c r="AE2" s="155"/>
     </row>
     <row r="3" spans="1:31" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
@@ -13054,15 +13054,15 @@
       </c>
       <c r="B4" s="14">
         <f>'summary chart'!B4</f>
-        <v>87.817999999999998</v>
+        <v>87.811999999999998</v>
       </c>
       <c r="C4" s="14">
         <f>'summary chart'!C4</f>
-        <v>87.902000000000001</v>
+        <v>87.896000000000001</v>
       </c>
       <c r="D4" s="14">
         <f>'summary chart'!D4</f>
-        <v>89.566000000000003</v>
+        <v>89.56</v>
       </c>
       <c r="E4" s="14">
         <f>'summary chart'!E4</f>
@@ -13070,15 +13070,15 @@
       </c>
       <c r="F4" s="14">
         <f>'summary chart'!F4</f>
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="G4" s="14">
         <f>'summary chart'!G4</f>
-        <v>0.34899999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="H4" s="117">
         <f>'summary chart'!H4</f>
-        <v>1.2430000000000001</v>
+        <v>1.244</v>
       </c>
       <c r="I4" s="127">
         <f>'summary chart'!I4</f>
@@ -13086,39 +13086,39 @@
       </c>
       <c r="J4" s="57">
         <f>'summary chart'!J4</f>
-        <v>1.83</v>
+        <v>1.829</v>
       </c>
       <c r="K4" s="57">
         <f>'summary chart'!K4</f>
-        <v>0.35</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="L4" s="43">
         <f>'summary chart'!L4</f>
-        <v>5.2350000000000003</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="M4" s="131">
         <f>'summary chart'!M4</f>
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="N4" s="57">
         <f>'summary chart'!N4</f>
-        <v>4.7450000000000001</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="O4" s="57">
         <f>'summary chart'!O4</f>
-        <v>0.622</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="P4" s="43">
         <f>'summary chart'!P4</f>
-        <v>7.63</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="Q4" s="131">
         <f>'summary chart'!Q4</f>
-        <v>8.3640000000000006E-5</v>
+        <v>1.4793E-4</v>
       </c>
       <c r="R4" s="57">
         <f>'summary chart'!R4</f>
-        <v>1.395</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="S4" s="57">
         <f>'summary chart'!S4</f>
@@ -13126,51 +13126,51 @@
       </c>
       <c r="T4" s="43">
         <f>'summary chart'!T4</f>
-        <v>3.1760000000000002</v>
+        <v>3.18</v>
       </c>
       <c r="U4" s="131">
         <f>'summary chart'!U4</f>
-        <v>8.3640000000000006E-5</v>
+        <v>1.4793E-4</v>
       </c>
       <c r="V4" s="57">
         <f>'summary chart'!V4</f>
-        <v>4.3099999999999996</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="W4" s="57">
         <f>'summary chart'!W4</f>
-        <v>0.81599999999999995</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="X4" s="43">
         <f>'summary chart'!X4</f>
-        <v>5.2809999999999997</v>
+        <v>4.915</v>
       </c>
       <c r="Y4" s="131">
         <f>'summary chart'!Y4</f>
-        <v>1.6999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Z4" s="57">
         <f>'summary chart'!Z4</f>
-        <v>2.915</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="AA4" s="57">
         <f>'summary chart'!AA4</f>
-        <v>0.75900000000000001</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AB4" s="43">
         <f>'summary chart'!AB4</f>
-        <v>3.84</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="AC4" s="72">
         <f>'summary chart'!AC4</f>
-        <v>1.6E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="AD4" s="42">
         <f>'summary chart'!AD4</f>
-        <v>0.65638662486339305</v>
+        <v>0.65585702935512502</v>
       </c>
       <c r="AE4" s="44">
         <f>'summary chart'!AE4</f>
-        <v>0.96307246623765197</v>
+        <v>0.96262627360894804</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -13179,31 +13179,31 @@
       </c>
       <c r="B5" s="14">
         <f>'summary chart'!B5</f>
-        <v>91.525000000000006</v>
+        <v>91.59</v>
       </c>
       <c r="C5" s="14">
         <f>'summary chart'!C5</f>
-        <v>91.96</v>
+        <v>92.022999999999996</v>
       </c>
       <c r="D5" s="14">
         <f>'summary chart'!D5</f>
-        <v>93.355000000000004</v>
+        <v>93.418999999999997</v>
       </c>
       <c r="E5" s="14">
         <f>'summary chart'!E5</f>
-        <v>96.27</v>
+        <v>96.537000000000006</v>
       </c>
       <c r="F5" s="14">
         <f>'summary chart'!F5</f>
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="G5" s="14">
         <f>'summary chart'!G5</f>
-        <v>0.34899999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="H5" s="117">
         <f>'summary chart'!H5</f>
-        <v>1.2430000000000001</v>
+        <v>1.244</v>
       </c>
       <c r="I5" s="128">
         <f>'summary chart'!I5</f>
@@ -13211,39 +13211,39 @@
       </c>
       <c r="J5" s="14">
         <f>'summary chart'!J5</f>
-        <v>1.83</v>
+        <v>1.829</v>
       </c>
       <c r="K5" s="14">
         <f>'summary chart'!K5</f>
-        <v>0.35</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="L5" s="17">
         <f>'summary chart'!L5</f>
-        <v>5.2350000000000003</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="M5" s="132">
         <f>'summary chart'!M5</f>
-        <v>1.6999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="N5" s="14">
         <f>'summary chart'!N5</f>
-        <v>4.7450000000000001</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="O5" s="14">
         <f>'summary chart'!O5</f>
-        <v>0.622</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="P5" s="17">
         <f>'summary chart'!P5</f>
-        <v>7.63</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="Q5" s="132">
         <f>'summary chart'!Q5</f>
-        <v>8.3640000000000006E-5</v>
+        <v>1.4793E-4</v>
       </c>
       <c r="R5" s="14">
         <f>'summary chart'!R5</f>
-        <v>1.395</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="S5" s="14">
         <f>'summary chart'!S5</f>
@@ -13251,51 +13251,51 @@
       </c>
       <c r="T5" s="17">
         <f>'summary chart'!T5</f>
-        <v>3.1760000000000002</v>
+        <v>3.18</v>
       </c>
       <c r="U5" s="132">
         <f>'summary chart'!U5</f>
-        <v>4.99E-2</v>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="V5" s="14">
         <f>'summary chart'!V5</f>
-        <v>4.3099999999999996</v>
+        <v>4.5149999999999997</v>
       </c>
       <c r="W5" s="14">
         <f>'summary chart'!W5</f>
-        <v>0.81599999999999995</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="X5" s="17">
         <f>'summary chart'!X5</f>
-        <v>5.2809999999999997</v>
+        <v>4.915</v>
       </c>
       <c r="Y5" s="132">
         <f>'summary chart'!Y5</f>
-        <v>1.6999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Z5" s="14">
         <f>'summary chart'!Z5</f>
-        <v>2.915</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="AA5" s="14">
         <f>'summary chart'!AA5</f>
-        <v>0.75900000000000001</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AB5" s="17">
         <f>'summary chart'!AB5</f>
-        <v>3.84</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="AC5" s="71">
         <f>'summary chart'!AC5</f>
-        <v>1.6E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="AD5" s="29">
         <f>'summary chart'!AD5</f>
-        <v>0.40595489908199001</v>
-      </c>
-      <c r="AE5" s="30">
+        <v>0.78756935398470695</v>
+      </c>
+      <c r="AE5" s="30" t="str">
         <f>'summary chart'!AE5</f>
-        <v>0.88112740613241902</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -13304,23 +13304,23 @@
       </c>
       <c r="B6" s="14">
         <f>'summary chart'!B6</f>
-        <v>5.1790000000000003</v>
+        <v>5.1239999999999997</v>
       </c>
       <c r="C6" s="14">
         <f>'summary chart'!C6</f>
-        <v>5.5439999999999996</v>
+        <v>5.4870000000000001</v>
       </c>
       <c r="D6" s="14">
         <f>'summary chart'!D6</f>
-        <v>5.2640000000000002</v>
+        <v>5.2080000000000002</v>
       </c>
       <c r="E6" s="14">
         <f>'summary chart'!E6</f>
-        <v>6.9429999999999996</v>
+        <v>7.077</v>
       </c>
       <c r="F6" s="14">
         <f>'summary chart'!F6</f>
-        <v>0.36499999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G6" s="14">
         <f>'summary chart'!G6</f>
@@ -13328,7 +13328,7 @@
       </c>
       <c r="H6" s="117">
         <f>'summary chart'!H6</f>
-        <v>1.1359999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I6" s="128">
         <f>'summary chart'!I6</f>
@@ -13336,15 +13336,15 @@
       </c>
       <c r="J6" s="14">
         <f>'summary chart'!J6</f>
-        <v>8.5999999999999993E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="K6" s="14">
         <f>'summary chart'!K6</f>
-        <v>0.33400000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="L6" s="17">
         <f>'summary chart'!L6</f>
-        <v>0.25600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="M6" s="132">
         <f>'summary chart'!M6</f>
@@ -13352,31 +13352,31 @@
       </c>
       <c r="N6" s="14">
         <f>'summary chart'!N6</f>
-        <v>1.764</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="O6" s="14">
         <f>'summary chart'!O6</f>
-        <v>0.42</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="P6" s="17">
         <f>'summary chart'!P6</f>
-        <v>4.2030000000000003</v>
+        <v>4.2549999999999999</v>
       </c>
       <c r="Q6" s="132">
         <f>'summary chart'!Q6</f>
-        <v>1.24E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="R6" s="14">
         <f>'summary chart'!R6</f>
-        <v>-0.28000000000000003</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="S6" s="14">
         <f>'summary chart'!S6</f>
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="T6" s="17">
         <f>'summary chart'!T6</f>
-        <v>-0.64600000000000002</v>
+        <v>-0.64200000000000002</v>
       </c>
       <c r="U6" s="132">
         <f>'summary chart'!U6</f>
@@ -13384,43 +13384,43 @@
       </c>
       <c r="V6" s="14">
         <f>'summary chart'!V6</f>
-        <v>1.399</v>
+        <v>1.59</v>
       </c>
       <c r="W6" s="14">
         <f>'summary chart'!W6</f>
-        <v>0.41699999999999998</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="X6" s="17">
         <f>'summary chart'!X6</f>
-        <v>3.3570000000000002</v>
+        <v>3.0990000000000002</v>
       </c>
       <c r="Y6" s="132">
         <f>'summary chart'!Y6</f>
-        <v>4.0599999999999997E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="Z6" s="14">
         <f>'summary chart'!Z6</f>
-        <v>1.6779999999999999</v>
+        <v>1.869</v>
       </c>
       <c r="AA6" s="14">
         <f>'summary chart'!AA6</f>
-        <v>0.33500000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AB6" s="17">
         <f>'summary chart'!AB6</f>
-        <v>5.0060000000000002</v>
+        <v>6.7990000000000004</v>
       </c>
       <c r="AC6" s="71">
         <f>'summary chart'!AC6</f>
-        <v>2.7000000000000001E-3</v>
+        <v>2.8774999999999997E-4</v>
       </c>
       <c r="AD6" s="29">
         <f>'summary chart'!AD6</f>
-        <v>0.18725760823075199</v>
+        <v>0.22171888117195901</v>
       </c>
       <c r="AE6" s="30">
         <f>'summary chart'!AE6</f>
-        <v>0.56045733646622098</v>
+        <v>0.65060167396938096</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13524,31 +13524,31 @@
       </c>
       <c r="B8" s="15">
         <f>'summary chart'!B8</f>
-        <v>97.004000000000005</v>
+        <v>97.174999999999997</v>
       </c>
       <c r="C8" s="15">
         <f>'summary chart'!C8</f>
-        <v>97.638000000000005</v>
+        <v>97.765000000000001</v>
       </c>
       <c r="D8" s="15">
         <f>'summary chart'!D8</f>
-        <v>94.364999999999995</v>
+        <v>94.54</v>
       </c>
       <c r="E8" s="15">
         <f>'summary chart'!E8</f>
-        <v>70.567999999999998</v>
+        <v>75.019000000000005</v>
       </c>
       <c r="F8" s="15">
         <f>'summary chart'!F8</f>
-        <v>0.63400000000000001</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="G8" s="15">
         <f>'summary chart'!G8</f>
-        <v>3.262</v>
+        <v>3.25</v>
       </c>
       <c r="H8" s="117">
         <f>'summary chart'!H8</f>
-        <v>0.19400000000000001</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="I8" s="128">
         <f>'summary chart'!I8</f>
@@ -13556,11 +13556,11 @@
       </c>
       <c r="J8" s="15">
         <f>'summary chart'!J8</f>
-        <v>-2.64</v>
+        <v>-2.6360000000000001</v>
       </c>
       <c r="K8" s="15">
         <f>'summary chart'!K8</f>
-        <v>5.0679999999999996</v>
+        <v>5.0640000000000001</v>
       </c>
       <c r="L8" s="17">
         <f>'summary chart'!L8</f>
@@ -13572,31 +13572,31 @@
       </c>
       <c r="N8" s="15">
         <f>'summary chart'!N8</f>
-        <v>-26.436</v>
+        <v>-22.155999999999999</v>
       </c>
       <c r="O8" s="15">
         <f>'summary chart'!O8</f>
-        <v>7.9219999999999997</v>
+        <v>5.3460000000000001</v>
       </c>
       <c r="P8" s="17">
         <f>'summary chart'!P8</f>
-        <v>-3.3370000000000002</v>
+        <v>-4.1440000000000001</v>
       </c>
       <c r="Q8" s="132">
         <f>'summary chart'!Q8</f>
-        <v>3.7600000000000001E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="R8" s="15">
         <f>'summary chart'!R8</f>
-        <v>-3.274</v>
+        <v>-3.2250000000000001</v>
       </c>
       <c r="S8" s="15">
         <f>'summary chart'!S8</f>
-        <v>4.1040000000000001</v>
+        <v>4.0860000000000003</v>
       </c>
       <c r="T8" s="17">
         <f>'summary chart'!T8</f>
-        <v>-0.79800000000000004</v>
+        <v>-0.78900000000000003</v>
       </c>
       <c r="U8" s="132">
         <f>'summary chart'!U8</f>
@@ -13604,43 +13604,43 @@
       </c>
       <c r="V8" s="15">
         <f>'summary chart'!V8</f>
-        <v>-27.07</v>
+        <v>-22.745000000000001</v>
       </c>
       <c r="W8" s="15">
         <f>'summary chart'!W8</f>
-        <v>7.6630000000000003</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="X8" s="17">
         <f>'summary chart'!X8</f>
-        <v>-3.5329999999999999</v>
+        <v>-5.3079999999999998</v>
       </c>
       <c r="Y8" s="132">
         <f>'summary chart'!Y8</f>
-        <v>2.7099999999999999E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="Z8" s="15">
         <f>'summary chart'!Z8</f>
-        <v>-23.795999999999999</v>
+        <v>-19.52</v>
       </c>
       <c r="AA8" s="15">
         <f>'summary chart'!AA8</f>
-        <v>9.0410000000000004</v>
+        <v>5.3170000000000002</v>
       </c>
       <c r="AB8" s="17">
         <f>'summary chart'!AB8</f>
-        <v>-2.6320000000000001</v>
+        <v>-3.6709999999999998</v>
       </c>
       <c r="AC8" s="71">
         <f>'summary chart'!AC8</f>
-        <v>0.12520000000000001</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="AD8" s="29">
         <f>'summary chart'!AD8</f>
-        <v>0.50228895795003903</v>
+        <v>0.60883047720371697</v>
       </c>
       <c r="AE8" s="30">
         <f>'summary chart'!AE8</f>
-        <v>0.70920915396352202</v>
+        <v>0.804796533837705</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -13649,31 +13649,31 @@
       </c>
       <c r="B9" s="15">
         <f>'summary chart'!B9</f>
-        <v>312.44499999999999</v>
+        <v>314.53699999999998</v>
       </c>
       <c r="C9" s="15">
         <f>'summary chart'!C9</f>
-        <v>315.411</v>
+        <v>317.58</v>
       </c>
       <c r="D9" s="15">
         <f>'summary chart'!D9</f>
-        <v>307.24</v>
+        <v>309.33300000000003</v>
       </c>
       <c r="E9" s="15">
         <f>'summary chart'!E9</f>
-        <v>275.44200000000001</v>
+        <v>292.33699999999999</v>
       </c>
       <c r="F9" s="15">
         <f>'summary chart'!F9</f>
-        <v>2.94</v>
+        <v>3.0430000000000001</v>
       </c>
       <c r="G9" s="15">
         <f>'summary chart'!G9</f>
-        <v>7.04</v>
+        <v>5.1609999999999996</v>
       </c>
       <c r="H9" s="117">
         <f>'summary chart'!H9</f>
-        <v>0.41799999999999998</v>
+        <v>0.59</v>
       </c>
       <c r="I9" s="128">
         <f>'summary chart'!I9</f>
@@ -13681,15 +13681,15 @@
       </c>
       <c r="J9" s="15">
         <f>'summary chart'!J9</f>
-        <v>-5.2039999999999997</v>
+        <v>-5.2030000000000003</v>
       </c>
       <c r="K9" s="15">
         <f>'summary chart'!K9</f>
-        <v>7.2039999999999997</v>
+        <v>5.0330000000000004</v>
       </c>
       <c r="L9" s="17">
         <f>'summary chart'!L9</f>
-        <v>-0.72199999999999998</v>
+        <v>-1.034</v>
       </c>
       <c r="M9" s="132">
         <f>'summary chart'!M9</f>
@@ -13697,75 +13697,75 @@
       </c>
       <c r="N9" s="15">
         <f>'summary chart'!N9</f>
-        <v>-37.003</v>
+        <v>-22.199000000000002</v>
       </c>
       <c r="O9" s="15">
         <f>'summary chart'!O9</f>
-        <v>15.519</v>
+        <v>7.1539999999999999</v>
       </c>
       <c r="P9" s="17">
         <f>'summary chart'!P9</f>
-        <v>-2.3839999999999999</v>
+        <v>-3.1030000000000002</v>
       </c>
       <c r="Q9" s="132">
         <f>'summary chart'!Q9</f>
-        <v>0.18729999999999999</v>
+        <v>5.2699999999999997E-2</v>
       </c>
       <c r="R9" s="15">
         <f>'summary chart'!R9</f>
-        <v>-8.1560000000000006</v>
+        <v>-8.2449999999999992</v>
       </c>
       <c r="S9" s="15">
         <f>'summary chart'!S9</f>
-        <v>6.8659999999999997</v>
+        <v>5.3979999999999997</v>
       </c>
       <c r="T9" s="17">
         <f>'summary chart'!T9</f>
-        <v>-1.1879999999999999</v>
+        <v>-1.528</v>
       </c>
       <c r="U9" s="132">
         <f>'summary chart'!U9</f>
-        <v>0.99990000000000001</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="V9" s="15">
         <f>'summary chart'!V9</f>
-        <v>-39.918999999999997</v>
+        <v>-25.242000000000001</v>
       </c>
       <c r="W9" s="15">
         <f>'summary chart'!W9</f>
-        <v>17.343</v>
+        <v>7.359</v>
       </c>
       <c r="X9" s="17">
         <f>'summary chart'!X9</f>
-        <v>-2.302</v>
+        <v>-3.43</v>
       </c>
       <c r="Y9" s="132">
         <f>'summary chart'!Y9</f>
-        <v>0.2107</v>
+        <v>3.27E-2</v>
       </c>
       <c r="Z9" s="15">
         <f>'summary chart'!Z9</f>
-        <v>-31.798999999999999</v>
+        <v>-16.997</v>
       </c>
       <c r="AA9" s="15">
         <f>'summary chart'!AA9</f>
-        <v>17.62</v>
+        <v>6.6849999999999996</v>
       </c>
       <c r="AB9" s="17">
         <f>'summary chart'!AB9</f>
-        <v>-1.8049999999999999</v>
+        <v>-2.5430000000000001</v>
       </c>
       <c r="AC9" s="71">
         <f>'summary chart'!AC9</f>
-        <v>0.50439999999999996</v>
+        <v>0.13739999999999999</v>
       </c>
       <c r="AD9" s="29">
         <f>'summary chart'!AD9</f>
-        <v>0.170648229551289</v>
+        <v>0.27182797663312502</v>
       </c>
       <c r="AE9" s="30">
         <f>'summary chart'!AE9</f>
-        <v>0.43477936449820098</v>
+        <v>0.52587707090467395</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14007,29 +14007,29 @@
     <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 M3 Q3 U3 Y3 AC3">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11">
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",AD11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I11 M4:M11 Q4:Q11 U4:U11 AC4:AC11 Y4:Y11">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14068,11 +14068,11 @@
       </c>
       <c r="B2" s="88">
         <f>'model tab'!B2</f>
-        <v>97.004000000000005</v>
+        <v>97.174999999999997</v>
       </c>
       <c r="C2" s="63">
         <f>'model tab'!B8</f>
-        <v>312.44499999999999</v>
+        <v>314.53699999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -14081,11 +14081,11 @@
       </c>
       <c r="B3" s="88">
         <f>'model tab'!H2</f>
-        <v>87.817999999999998</v>
+        <v>87.811999999999998</v>
       </c>
       <c r="C3" s="63">
         <f>'model tab'!H8</f>
-        <v>91.525000000000006</v>
+        <v>91.59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -14110,11 +14110,11 @@
       </c>
       <c r="B6" s="88">
         <f>'model tab'!B3</f>
-        <v>97.638000000000005</v>
+        <v>97.765000000000001</v>
       </c>
       <c r="C6" s="63">
         <f>'model tab'!B9</f>
-        <v>315.411</v>
+        <v>317.58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -14123,11 +14123,11 @@
       </c>
       <c r="B7" s="88">
         <f>'model tab'!H3</f>
-        <v>87.902000000000001</v>
+        <v>87.896000000000001</v>
       </c>
       <c r="C7" s="63">
         <f>'model tab'!H9</f>
-        <v>91.96</v>
+        <v>92.022999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -14152,11 +14152,11 @@
       </c>
       <c r="B10" s="63">
         <f>'model tab'!B4</f>
-        <v>94.364999999999995</v>
+        <v>94.54</v>
       </c>
       <c r="C10" s="63">
         <f>'model tab'!B10</f>
-        <v>307.24</v>
+        <v>309.33300000000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -14165,11 +14165,11 @@
       </c>
       <c r="B11" s="63">
         <f>'model tab'!H4</f>
-        <v>89.566000000000003</v>
+        <v>89.56</v>
       </c>
       <c r="C11" s="63">
         <f>'model tab'!H10</f>
-        <v>93.355000000000004</v>
+        <v>93.418999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -14194,11 +14194,11 @@
       </c>
       <c r="B14" s="63">
         <f>'model tab'!B5</f>
-        <v>70.567999999999998</v>
+        <v>75.019000000000005</v>
       </c>
       <c r="C14" s="63">
         <f>'model tab'!B11</f>
-        <v>275.44200000000001</v>
+        <v>292.33699999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="C15" s="63">
         <f>'model tab'!H11</f>
-        <v>96.27</v>
+        <v>96.537000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -14243,11 +14243,11 @@
       </c>
       <c r="B19" s="92">
         <f>'model tab'!C2</f>
-        <v>5.9859999999999998</v>
+        <v>5.9939999999999998</v>
       </c>
       <c r="C19" s="76">
         <f>'model tab'!C8</f>
-        <v>14.731</v>
+        <v>13.734</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -14256,7 +14256,7 @@
       </c>
       <c r="B20" s="92">
         <f>'model tab'!I2</f>
-        <v>1.1100000000000001</v>
+        <v>1.109</v>
       </c>
       <c r="C20" s="76">
         <f>'model tab'!I8</f>
@@ -14285,11 +14285,11 @@
       </c>
       <c r="B23" s="92">
         <f>'model tab'!C3</f>
-        <v>6.1849999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="C23" s="76">
         <f>'model tab'!C9</f>
-        <v>14.776</v>
+        <v>13.946999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="C24" s="76">
         <f>'model tab'!I9</f>
-        <v>1.1060000000000001</v>
+        <v>1.107</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -14327,11 +14327,11 @@
       </c>
       <c r="B27" s="76">
         <f>'model tab'!C4</f>
-        <v>6.46</v>
+        <v>6.4409999999999998</v>
       </c>
       <c r="C27" s="76">
         <f>'model tab'!C10</f>
-        <v>14.334</v>
+        <v>13.318</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -14340,11 +14340,11 @@
       </c>
       <c r="B28" s="76">
         <f>'model tab'!I4</f>
-        <v>1.234</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="C28" s="76">
         <f>'model tab'!I10</f>
-        <v>1.105</v>
+        <v>1.1060000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -14369,11 +14369,11 @@
       </c>
       <c r="B31" s="76">
         <f>'model tab'!C5</f>
-        <v>9.718</v>
+        <v>7.351</v>
       </c>
       <c r="C31" s="76">
         <f>'model tab'!C11</f>
-        <v>21.504999999999999</v>
+        <v>12.585000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="C32" s="76">
         <f>'model tab'!I11</f>
-        <v>1.415</v>
+        <v>1.4970000000000001</v>
       </c>
     </row>
   </sheetData>
